--- a/output_2025-02-01_23-51-19.xlsx
+++ b/output_2025-02-01_23-51-19.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repositorium\RMC_SRP_Adviser\RMC_SRP_Adviser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D13D72-3B6A-4EFB-8092-396D25A3BC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30CB9C5-1931-4DC1-B28C-76BA1F92BDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Links for check" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="356">
   <si>
     <t>ID</t>
   </si>
@@ -461,9 +472,6 @@
     <t>https://zkillboard.com/kill/124275948/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124333201/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124047975/</t>
   </si>
   <si>
@@ -494,9 +502,6 @@
     <t>tackle_links</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124100143/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124282666/</t>
   </si>
   <si>
@@ -539,9 +544,6 @@
     <t>https://zkillboard.com/kill/124047940/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124222765/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124377717/</t>
   </si>
   <si>
@@ -566,9 +568,6 @@
     <t>https://zkillboard.com/kill/124047960/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/123939214/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124024722/</t>
   </si>
   <si>
@@ -590,27 +589,9 @@
     <t>https://zkillboard.com/kill/124119294/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124404587/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124178379/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124106333/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124075894/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124073264/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/123989660/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124333851/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124333249/</t>
   </si>
   <si>
@@ -698,9 +679,6 @@
     <t>https://zkillboard.com/kill/124378677/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/123897214/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124379788/</t>
   </si>
   <si>
@@ -737,9 +715,6 @@
     <t>https://zkillboard.com/kill/124024739/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124268169/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124398704/</t>
   </si>
   <si>
@@ -764,9 +739,6 @@
     <t>https://zkillboard.com/kill/123924760/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124258079/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124200495/</t>
   </si>
   <si>
@@ -809,12 +781,6 @@
     <t>https://zkillboard.com/kill/124024724/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124296588/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124180377/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/123749855/</t>
   </si>
   <si>
@@ -905,18 +871,12 @@
     <t>https://zkillboard.com/kill/124203010/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124022690/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124281865/</t>
   </si>
   <si>
     <t>https://zkillboard.com/kill/124200490/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124333822/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124276098/</t>
   </si>
   <si>
@@ -974,27 +934,12 @@
     <t>https://zkillboard.com/kill/124202927/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124403533/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124048495/</t>
   </si>
   <si>
     <t>https://zkillboard.com/kill/124047074/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/123899154/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124296341/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124152418/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123825848/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/123780508/</t>
   </si>
   <si>
@@ -1007,12 +952,6 @@
     <t>https://zkillboard.com/kill/123901694/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124296428/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124152758/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124024740/</t>
   </si>
   <si>
@@ -1034,33 +973,12 @@
     <t>https://zkillboard.com/kill/123749822/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124170230/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123721536/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124202882/</t>
   </si>
   <si>
     <t>https://zkillboard.com/kill/124119534/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124331117/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124122482/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124096166/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124095789/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123924539/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/123749923/</t>
   </si>
   <si>
@@ -1079,15 +997,9 @@
     <t>https://zkillboard.com/kill/123749859/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124222442/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124276088/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/123720734/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124202160/</t>
   </si>
   <si>
@@ -1097,42 +1009,15 @@
     <t>https://zkillboard.com/kill/124200507/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/123720840/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124377480/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124334426/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124122459/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124276081/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/123826930/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123720743/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123826943/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123894174/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124132348/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124097546/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124405745/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124277204/</t>
   </si>
   <si>
@@ -1142,48 +1027,18 @@
     <t>https://zkillboard.com/kill/124275988/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124222394/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124200598/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124097440/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124097196/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124096747/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123806771/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124276864/</t>
   </si>
   <si>
     <t>https://zkillboard.com/kill/123749806/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124096965/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/123749728/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/123720821/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123958162/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123751836/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124400327/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124276611/</t>
   </si>
   <si>
@@ -1214,12 +1069,6 @@
     <t>https://zkillboard.com/kill/123749752/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/123720736/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124096453/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/123779850/</t>
   </si>
   <si>
@@ -1232,30 +1081,6 @@
     <t>https://zkillboard.com/kill/123856591/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/124097373/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124098644/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124359145/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124356516/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123958131/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123924561/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123894093/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/124177780/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124356703/</t>
   </si>
   <si>
@@ -1271,13 +1096,7 @@
     <t>https://zkillboard.com/kill/123924462/</t>
   </si>
   <si>
-    <t>https://zkillboard.com/kill/123778674/</t>
-  </si>
-  <si>
     <t>https://zkillboard.com/kill/124377989/</t>
-  </si>
-  <si>
-    <t>https://zkillboard.com/kill/123720750/</t>
   </si>
   <si>
     <t>https://zkillboard.com/kill/123749945/</t>
@@ -1309,12 +1128,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1345,13 +1170,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1658,7 +1484,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
@@ -3702,10 +3528,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D282"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3764,7 +3590,7 @@
       <c r="D3" s="3">
         <v>172172608.71000001</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3898,7 +3724,7 @@
         <v>135</v>
       </c>
       <c r="D11" s="3">
-        <v>206194288.77000001</v>
+        <v>216211823.53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>146</v>
@@ -3915,7 +3741,7 @@
         <v>135</v>
       </c>
       <c r="D12" s="3">
-        <v>216211823.53</v>
+        <v>103128014.14</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>147</v>
@@ -3932,7 +3758,7 @@
         <v>135</v>
       </c>
       <c r="D13" s="3">
-        <v>103128014.14</v>
+        <v>97544538.939999998</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>148</v>
@@ -3946,10 +3772,10 @@
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D14" s="3">
-        <v>97544538.939999998</v>
+        <v>259319005.25999999</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>149</v>
@@ -3966,7 +3792,7 @@
         <v>138</v>
       </c>
       <c r="D15" s="3">
-        <v>259319005.25999999</v>
+        <v>167212392.38</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>150</v>
@@ -3974,7 +3800,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>
@@ -3983,7 +3809,7 @@
         <v>138</v>
       </c>
       <c r="D16" s="3">
-        <v>167212392.38</v>
+        <v>317447101.35000002</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>151</v>
@@ -3991,7 +3817,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -4000,7 +3826,7 @@
         <v>138</v>
       </c>
       <c r="D17" s="3">
-        <v>317447101.35000002</v>
+        <v>330093643.56999999</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>152</v>
@@ -4008,7 +3834,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -4017,7 +3843,7 @@
         <v>138</v>
       </c>
       <c r="D18" s="3">
-        <v>330093643.56999999</v>
+        <v>240943492.66</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>153</v>
@@ -4025,7 +3851,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -4034,7 +3860,7 @@
         <v>138</v>
       </c>
       <c r="D19" s="3">
-        <v>240943492.66</v>
+        <v>12300316.220000001</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>154</v>
@@ -4042,33 +3868,33 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D20" s="3">
-        <v>12300316.220000001</v>
+        <v>159526171.96000001</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D21" s="3">
-        <v>19010294.359999999</v>
+        <v>159361516.09999999</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>157</v>
@@ -4085,7 +3911,7 @@
         <v>135</v>
       </c>
       <c r="D22" s="3">
-        <v>159526171.96000001</v>
+        <v>152496294.88</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>158</v>
@@ -4099,13 +3925,13 @@
         <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D23" s="3">
-        <v>159361516.09999999</v>
+        <v>-209777703</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,27 +3942,27 @@
         <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D24" s="3">
-        <v>152496294.88</v>
+        <v>-209777703</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D25" s="3">
-        <v>-209777703</v>
+        <v>146168536.77000001</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>162</v>
@@ -4144,16 +3970,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D26" s="3">
-        <v>-209777703</v>
+        <v>7751178.25</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>163</v>
@@ -4161,16 +3987,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D27" s="3">
-        <v>146168536.77000001</v>
+        <v>9400906.4800000004</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>164</v>
@@ -4187,7 +4013,7 @@
         <v>138</v>
       </c>
       <c r="D28" s="3">
-        <v>7751178.25</v>
+        <v>9587026.5100000016</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>165</v>
@@ -4195,7 +4021,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -4204,7 +4030,7 @@
         <v>138</v>
       </c>
       <c r="D29" s="3">
-        <v>9400906.4800000004</v>
+        <v>333649965.85000002</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>166</v>
@@ -4212,7 +4038,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -4221,7 +4047,7 @@
         <v>138</v>
       </c>
       <c r="D30" s="3">
-        <v>9587026.5100000016</v>
+        <v>486685452.91000003</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>167</v>
@@ -4229,7 +4055,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -4238,7 +4064,7 @@
         <v>138</v>
       </c>
       <c r="D31" s="3">
-        <v>333649965.85000002</v>
+        <v>355608629.51999998</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>168</v>
@@ -4246,7 +4072,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -4255,7 +4081,7 @@
         <v>138</v>
       </c>
       <c r="D32" s="3">
-        <v>486685452.91000003</v>
+        <v>357819503.87</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>169</v>
@@ -4263,16 +4089,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D33" s="3">
-        <v>355608629.51999998</v>
+        <v>159632669.34</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>170</v>
@@ -4280,16 +4106,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D34" s="3">
-        <v>357819503.87</v>
+        <v>200868644.88999999</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>171</v>
@@ -4297,16 +4123,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D35" s="3">
-        <v>222697374.72</v>
+        <v>144764629.34</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>172</v>
@@ -4314,7 +4140,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -4323,7 +4149,7 @@
         <v>135</v>
       </c>
       <c r="D36" s="3">
-        <v>159632669.34</v>
+        <v>161158470.36000001</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>173</v>
@@ -4331,7 +4157,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -4340,7 +4166,7 @@
         <v>135</v>
       </c>
       <c r="D37" s="3">
-        <v>200868644.88999999</v>
+        <v>186917354.61000001</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>174</v>
@@ -4348,7 +4174,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -4357,7 +4183,7 @@
         <v>135</v>
       </c>
       <c r="D38" s="3">
-        <v>144764629.34</v>
+        <v>103156396.78</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>175</v>
@@ -4371,10 +4197,10 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D39" s="3">
-        <v>161158470.36000001</v>
+        <v>33356569.199999999</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>176</v>
@@ -4382,7 +4208,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -4391,7 +4217,7 @@
         <v>135</v>
       </c>
       <c r="D40" s="3">
-        <v>186917354.61000001</v>
+        <v>172192974.87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>177</v>
@@ -4399,7 +4225,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -4416,16 +4242,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D42" s="3">
-        <v>33356569.199999999</v>
+        <v>284506516.80000001</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>179</v>
@@ -4433,16 +4259,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D43" s="3">
-        <v>172192974.87</v>
+        <v>256889178.75</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>180</v>
@@ -4450,16 +4276,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="3">
-        <v>230662302.61000001</v>
+        <v>88446253.919999987</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>181</v>
@@ -4467,16 +4293,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="3">
-        <v>103156396.78</v>
+        <v>262113281.90000001</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>182</v>
@@ -4484,7 +4310,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -4493,7 +4319,7 @@
         <v>138</v>
       </c>
       <c r="D46" s="3">
-        <v>284506516.80000001</v>
+        <v>248168145.58000001</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>183</v>
@@ -4501,7 +4327,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -4510,7 +4336,7 @@
         <v>138</v>
       </c>
       <c r="D47" s="3">
-        <v>256889178.75</v>
+        <v>233608059.56</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>184</v>
@@ -4518,7 +4344,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -4527,7 +4353,7 @@
         <v>135</v>
       </c>
       <c r="D48" s="3">
-        <v>88446253.919999987</v>
+        <v>159672361.75999999</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>185</v>
@@ -4535,16 +4361,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D49" s="3">
-        <v>262113281.90000001</v>
+        <v>56733075.170000002</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>186</v>
@@ -4552,16 +4378,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D50" s="3">
-        <v>248168145.58000001</v>
+        <v>65834647.380000003</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>187</v>
@@ -4569,16 +4395,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D51" s="3">
-        <v>233608059.56</v>
+        <v>208060566.65000001</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>188</v>
@@ -4586,16 +4412,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D52" s="3">
-        <v>68303969.609999999</v>
+        <v>97520536.219999999</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>189</v>
@@ -4603,16 +4429,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="3">
-        <v>68072378.849999994</v>
+        <v>-209777703</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>190</v>
@@ -4620,16 +4446,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D54" s="3">
-        <v>68016378.719999999</v>
+        <v>-209777703</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>191</v>
@@ -4637,16 +4463,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D55" s="3">
-        <v>67823089.439999998</v>
+        <v>158926177.24000001</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>192</v>
@@ -4654,16 +4480,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D56" s="3">
-        <v>67825400.280000001</v>
+        <v>178548143.37</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>193</v>
@@ -4671,16 +4497,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D57" s="3">
-        <v>159672361.75999999</v>
+        <v>280488918.50999999</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>194</v>
@@ -4688,16 +4514,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D58" s="3">
-        <v>56733075.170000002</v>
+        <v>183915692.97</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>195</v>
@@ -4705,16 +4531,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D59" s="3">
-        <v>56733075.170000002</v>
+        <v>179038993.90000001</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>196</v>
@@ -4722,16 +4548,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D60" s="3">
-        <v>65834647.380000003</v>
+        <v>259861430.28</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>197</v>
@@ -4739,16 +4565,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D61" s="3">
-        <v>208060566.65000001</v>
+        <v>13302168.380000001</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>198</v>
@@ -4756,16 +4582,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D62" s="3">
-        <v>97520536.219999999</v>
+        <v>260324090.63999999</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>199</v>
@@ -4773,13 +4599,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D63" s="3">
         <v>-209777703</v>
@@ -4790,16 +4616,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D64" s="3">
-        <v>-209777703</v>
+        <v>224639970.53999999</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>201</v>
@@ -4807,16 +4633,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D65" s="3">
-        <v>158926177.24000001</v>
+        <v>462626386.51999998</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>202</v>
@@ -4824,16 +4650,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D66" s="3">
-        <v>178548143.37</v>
+        <v>483557049.50999999</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>203</v>
@@ -4841,16 +4667,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D67" s="3">
-        <v>280488918.50999999</v>
+        <v>159468191.30000001</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>204</v>
@@ -4858,7 +4684,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -4867,7 +4693,7 @@
         <v>135</v>
       </c>
       <c r="D68" s="3">
-        <v>183915692.97</v>
+        <v>159337859.94</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>205</v>
@@ -4875,7 +4701,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -4884,7 +4710,7 @@
         <v>135</v>
       </c>
       <c r="D69" s="3">
-        <v>179038993.90000001</v>
+        <v>103146935.90000001</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>206</v>
@@ -4892,16 +4718,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D70" s="3">
-        <v>259861430.28</v>
+        <v>150750343.94999999</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>207</v>
@@ -4909,16 +4735,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D71" s="3">
-        <v>13302168.380000001</v>
+        <v>224660907.41999999</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>208</v>
@@ -4926,16 +4752,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D72" s="3">
-        <v>260324090.63999999</v>
+        <v>146177997.65000001</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>209</v>
@@ -4943,16 +4769,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D73" s="3">
-        <v>-209777703</v>
+        <v>207839049.77000001</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>210</v>
@@ -4960,7 +4786,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -4969,7 +4795,7 @@
         <v>135</v>
       </c>
       <c r="D74" s="3">
-        <v>224639970.53999999</v>
+        <v>208245749.56999999</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>211</v>
@@ -4977,16 +4803,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D75" s="3">
-        <v>462626386.51999998</v>
+        <v>103137475.02</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>212</v>
@@ -4994,16 +4820,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D76" s="3">
-        <v>483557049.50999999</v>
+        <v>58879493.540000007</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>213</v>
@@ -5011,16 +4837,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D77" s="3">
-        <v>159468191.30000001</v>
+        <v>-209777703</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>214</v>
@@ -5028,16 +4854,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D78" s="3">
-        <v>159337859.94</v>
+        <v>76575381.920000002</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>215</v>
@@ -5045,7 +4871,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -5054,7 +4880,7 @@
         <v>135</v>
       </c>
       <c r="D79" s="3">
-        <v>103146935.90000001</v>
+        <v>185169889.16</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>216</v>
@@ -5062,7 +4888,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -5071,7 +4897,7 @@
         <v>135</v>
       </c>
       <c r="D80" s="3">
-        <v>150750343.94999999</v>
+        <v>152171958.88</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>217</v>
@@ -5079,7 +4905,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -5088,7 +4914,7 @@
         <v>135</v>
       </c>
       <c r="D81" s="3">
-        <v>224660907.41999999</v>
+        <v>159570371.02000001</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>218</v>
@@ -5096,7 +4922,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -5105,7 +4931,7 @@
         <v>135</v>
       </c>
       <c r="D82" s="3">
-        <v>146177997.65000001</v>
+        <v>207805795.00999999</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>219</v>
@@ -5113,7 +4939,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -5122,7 +4948,7 @@
         <v>135</v>
       </c>
       <c r="D83" s="3">
-        <v>207839049.77000001</v>
+        <v>157601725.81</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>220</v>
@@ -5130,16 +4956,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D84" s="3">
-        <v>208245749.56999999</v>
+        <v>-209777703</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>221</v>
@@ -5147,7 +4973,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -5156,7 +4982,7 @@
         <v>135</v>
       </c>
       <c r="D85" s="3">
-        <v>103137475.02</v>
+        <v>159555368.25999999</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>222</v>
@@ -5164,16 +4990,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D86" s="3">
-        <v>58879493.540000007</v>
+        <v>193195345.38</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>223</v>
@@ -5181,16 +5007,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D87" s="3">
-        <v>-209777703</v>
+        <v>161128173.90000001</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>224</v>
@@ -5198,16 +5024,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D88" s="3">
-        <v>237010069.21000001</v>
+        <v>172184732.00999999</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>225</v>
@@ -5215,16 +5041,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D89" s="3">
-        <v>76575381.920000002</v>
+        <v>103137475.02</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>226</v>
@@ -5232,16 +5058,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D90" s="3">
-        <v>185169889.16</v>
+        <v>52384725.630000003</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>227</v>
@@ -5249,16 +5075,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D91" s="3">
-        <v>152171958.88</v>
+        <v>259862560.40000001</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>228</v>
@@ -5266,16 +5092,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D92" s="3">
-        <v>159570371.02000001</v>
+        <v>259904407.15000001</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>229</v>
@@ -5283,7 +5109,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -5292,7 +5118,7 @@
         <v>135</v>
       </c>
       <c r="D93" s="3">
-        <v>207805795.00999999</v>
+        <v>159337859.94</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>230</v>
@@ -5300,7 +5126,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -5309,7 +5135,7 @@
         <v>135</v>
       </c>
       <c r="D94" s="3">
-        <v>157601725.81</v>
+        <v>193306454.15000001</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>231</v>
@@ -5317,16 +5143,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D95" s="3">
-        <v>-209777703</v>
+        <v>212848171.62</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>232</v>
@@ -5334,7 +5160,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -5343,7 +5169,7 @@
         <v>135</v>
       </c>
       <c r="D96" s="3">
-        <v>159555368.25999999</v>
+        <v>172186957.16999999</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>233</v>
@@ -5351,16 +5177,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D97" s="3">
-        <v>193195345.38</v>
+        <v>433768409.83999997</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>234</v>
@@ -5368,7 +5194,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -5377,7 +5203,7 @@
         <v>135</v>
       </c>
       <c r="D98" s="3">
-        <v>161128173.90000001</v>
+        <v>159482562.41</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>235</v>
@@ -5385,7 +5211,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -5394,7 +5220,7 @@
         <v>135</v>
       </c>
       <c r="D99" s="3">
-        <v>172184732.00999999</v>
+        <v>207825526.78999999</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>236</v>
@@ -5402,7 +5228,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -5411,7 +5237,7 @@
         <v>135</v>
       </c>
       <c r="D100" s="3">
-        <v>103137475.02</v>
+        <v>216238494.78999999</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>237</v>
@@ -5419,16 +5245,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D101" s="3">
-        <v>165123445.15000001</v>
+        <v>93540129.75999999</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>238</v>
@@ -5436,16 +5262,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D102" s="3">
-        <v>52384725.630000003</v>
+        <v>97556282.870000005</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>239</v>
@@ -5453,16 +5279,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D103" s="3">
-        <v>259862560.40000001</v>
+        <v>106333384.41</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>240</v>
@@ -5470,16 +5296,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" s="3">
-        <v>259904407.15000001</v>
+        <v>150766560.75</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>241</v>
@@ -5487,7 +5313,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -5496,7 +5322,7 @@
         <v>135</v>
       </c>
       <c r="D105" s="3">
-        <v>159337859.94</v>
+        <v>159540069.78</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>242</v>
@@ -5504,7 +5330,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -5513,7 +5339,7 @@
         <v>135</v>
       </c>
       <c r="D106" s="3">
-        <v>193306454.15000001</v>
+        <v>93540129.75999999</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>243</v>
@@ -5521,16 +5347,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D107" s="3">
-        <v>212848171.62</v>
+        <v>530712598.19999999</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>244</v>
@@ -5538,16 +5364,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D108" s="3">
-        <v>172186957.16999999</v>
+        <v>258632613.22999999</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>245</v>
@@ -5555,16 +5381,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D109" s="3">
-        <v>433768409.83999997</v>
+        <v>191710482.02000001</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>246</v>
@@ -5572,16 +5398,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D110" s="3">
-        <v>13648202.67</v>
+        <v>226235314.41999999</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>247</v>
@@ -5589,7 +5415,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -5598,7 +5424,7 @@
         <v>135</v>
       </c>
       <c r="D111" s="3">
-        <v>159482562.41</v>
+        <v>93549590.639999986</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>248</v>
@@ -5606,7 +5432,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -5615,7 +5441,7 @@
         <v>135</v>
       </c>
       <c r="D112" s="3">
-        <v>207825526.78999999</v>
+        <v>182588108.22</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>249</v>
@@ -5623,7 +5449,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -5632,7 +5458,7 @@
         <v>135</v>
       </c>
       <c r="D113" s="3">
-        <v>216238494.78999999</v>
+        <v>159384796.19999999</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>250</v>
@@ -5640,7 +5466,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -5649,7 +5475,7 @@
         <v>135</v>
       </c>
       <c r="D114" s="3">
-        <v>93540129.75999999</v>
+        <v>159543828.16999999</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>251</v>
@@ -5657,7 +5483,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -5666,7 +5492,7 @@
         <v>135</v>
       </c>
       <c r="D115" s="3">
-        <v>97556282.870000005</v>
+        <v>198261650.65000001</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>252</v>
@@ -5674,7 +5500,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -5683,7 +5509,7 @@
         <v>135</v>
       </c>
       <c r="D116" s="3">
-        <v>106333384.41</v>
+        <v>172244968.47</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>253</v>
@@ -5691,7 +5517,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -5700,7 +5526,7 @@
         <v>135</v>
       </c>
       <c r="D117" s="3">
-        <v>150766560.75</v>
+        <v>117064472.53</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>254</v>
@@ -5708,7 +5534,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -5717,7 +5543,7 @@
         <v>135</v>
       </c>
       <c r="D118" s="3">
-        <v>159540069.78</v>
+        <v>152724837.72999999</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>255</v>
@@ -5725,7 +5551,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -5734,7 +5560,7 @@
         <v>135</v>
       </c>
       <c r="D119" s="3">
-        <v>93540129.75999999</v>
+        <v>97526214.139999986</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>256</v>
@@ -5742,16 +5568,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D120" s="3">
-        <v>530712598.19999999</v>
+        <v>103137475.02</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>257</v>
@@ -5759,16 +5585,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D121" s="3">
-        <v>258632613.22999999</v>
+        <v>216007066.69999999</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>258</v>
@@ -5776,16 +5602,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D122" s="3">
-        <v>191710482.02000001</v>
+        <v>222697374.72</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>259</v>
@@ -5793,7 +5619,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -5802,7 +5628,7 @@
         <v>135</v>
       </c>
       <c r="D123" s="3">
-        <v>226235314.41999999</v>
+        <v>159612921.65000001</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>260</v>
@@ -5810,7 +5636,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -5819,7 +5645,7 @@
         <v>135</v>
       </c>
       <c r="D124" s="3">
-        <v>93549590.639999986</v>
+        <v>191748904.47999999</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>261</v>
@@ -5827,7 +5653,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -5836,7 +5662,7 @@
         <v>135</v>
       </c>
       <c r="D125" s="3">
-        <v>304655674.16000003</v>
+        <v>101633967.76000001</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>262</v>
@@ -5844,7 +5670,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -5853,7 +5679,7 @@
         <v>135</v>
       </c>
       <c r="D126" s="3">
-        <v>300055728.23000002</v>
+        <v>152201617.12</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>263</v>
@@ -5861,16 +5687,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D127" s="3">
-        <v>182588108.22</v>
+        <v>-209777703</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>264</v>
@@ -5878,7 +5704,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -5887,7 +5713,7 @@
         <v>135</v>
       </c>
       <c r="D128" s="3">
-        <v>159384796.19999999</v>
+        <v>216260870.53</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>265</v>
@@ -5895,7 +5721,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -5904,7 +5730,7 @@
         <v>135</v>
       </c>
       <c r="D129" s="3">
-        <v>159543828.16999999</v>
+        <v>193277323.02000001</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>266</v>
@@ -5912,16 +5738,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D130" s="3">
-        <v>198261650.65000001</v>
+        <v>236682091.41</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>267</v>
@@ -5929,7 +5755,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -5938,7 +5764,7 @@
         <v>135</v>
       </c>
       <c r="D131" s="3">
-        <v>172244968.47</v>
+        <v>159459499.96000001</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>268</v>
@@ -5946,7 +5772,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -5955,7 +5781,7 @@
         <v>135</v>
       </c>
       <c r="D132" s="3">
-        <v>117064472.53</v>
+        <v>103172919.69</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>269</v>
@@ -5963,7 +5789,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -5972,7 +5798,7 @@
         <v>135</v>
       </c>
       <c r="D133" s="3">
-        <v>152724837.72999999</v>
+        <v>150720398.55000001</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>270</v>
@@ -5980,16 +5806,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D134" s="3">
-        <v>97526214.139999986</v>
+        <v>255537125.22999999</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>271</v>
@@ -5997,16 +5823,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D135" s="3">
-        <v>103137475.02</v>
+        <v>59198318.060000002</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>272</v>
@@ -6014,16 +5840,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D136" s="3">
-        <v>216007066.69999999</v>
+        <v>82938204.299999997</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>273</v>
@@ -6031,16 +5857,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D137" s="3">
-        <v>222697374.72</v>
+        <v>58961771.229999997</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>274</v>
@@ -6048,16 +5874,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D138" s="3">
-        <v>159612921.65000001</v>
+        <v>92261549.140000001</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>275</v>
@@ -6065,7 +5891,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -6074,7 +5900,7 @@
         <v>135</v>
       </c>
       <c r="D139" s="3">
-        <v>191748904.47999999</v>
+        <v>217954052.18000001</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>276</v>
@@ -6082,16 +5908,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D140" s="3">
-        <v>101633967.76000001</v>
+        <v>59124143.380000003</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>277</v>
@@ -6099,16 +5925,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D141" s="3">
-        <v>152201617.12</v>
+        <v>-209777703</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>278</v>
@@ -6116,16 +5942,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D142" s="3">
-        <v>-209777703</v>
+        <v>60352129.989999987</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>279</v>
@@ -6133,7 +5959,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -6142,7 +5968,7 @@
         <v>135</v>
       </c>
       <c r="D143" s="3">
-        <v>216260870.53</v>
+        <v>159294051.30000001</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>280</v>
@@ -6150,7 +5976,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -6159,7 +5985,7 @@
         <v>135</v>
       </c>
       <c r="D144" s="3">
-        <v>193277323.02000001</v>
+        <v>152377704.44</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>281</v>
@@ -6167,7 +5993,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -6176,7 +6002,7 @@
         <v>138</v>
       </c>
       <c r="D145" s="3">
-        <v>236682091.41</v>
+        <v>191133031.75999999</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>282</v>
@@ -6184,7 +6010,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -6193,7 +6019,7 @@
         <v>135</v>
       </c>
       <c r="D146" s="3">
-        <v>159459499.96000001</v>
+        <v>208281867.05000001</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>283</v>
@@ -6201,7 +6027,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -6210,7 +6036,7 @@
         <v>135</v>
       </c>
       <c r="D147" s="3">
-        <v>103172919.69</v>
+        <v>214282991.87</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>284</v>
@@ -6218,7 +6044,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -6227,7 +6053,7 @@
         <v>135</v>
       </c>
       <c r="D148" s="3">
-        <v>150720398.55000001</v>
+        <v>216245768.77000001</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>285</v>
@@ -6235,7 +6061,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -6244,7 +6070,7 @@
         <v>138</v>
       </c>
       <c r="D149" s="3">
-        <v>255537125.22999999</v>
+        <v>39735266.969999999</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>286</v>
@@ -6252,16 +6078,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D150" s="3">
-        <v>59198318.060000002</v>
+        <v>13040593.310000001</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>287</v>
@@ -6269,16 +6095,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D151" s="3">
-        <v>82938204.299999997</v>
+        <v>46388016.049999997</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>288</v>
@@ -6286,16 +6112,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D152" s="3">
-        <v>58961771.229999997</v>
+        <v>46018441.649999999</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>289</v>
@@ -6303,16 +6129,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D153" s="3">
-        <v>92261549.140000001</v>
+        <v>322901377.95999998</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>290</v>
@@ -6320,7 +6146,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -6329,7 +6155,7 @@
         <v>135</v>
       </c>
       <c r="D154" s="3">
-        <v>217954052.18000001</v>
+        <v>159484055.28</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>291</v>
@@ -6337,16 +6163,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D155" s="3">
-        <v>59124143.380000003</v>
+        <v>172186082.44999999</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>292</v>
@@ -6354,16 +6180,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D156" s="3">
-        <v>-209777703</v>
+        <v>159585373.78</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>293</v>
@@ -6371,7 +6197,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -6380,7 +6206,7 @@
         <v>135</v>
       </c>
       <c r="D157" s="3">
-        <v>156497063.91999999</v>
+        <v>159457850.31999999</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>294</v>
@@ -6388,16 +6214,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D158" s="3">
-        <v>60352129.989999987</v>
+        <v>160906902.96000001</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>295</v>
@@ -6405,7 +6231,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -6414,7 +6240,7 @@
         <v>135</v>
       </c>
       <c r="D159" s="3">
-        <v>159294051.30000001</v>
+        <v>160108604.5</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>296</v>
@@ -6422,16 +6248,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D160" s="3">
-        <v>66509010.109999999</v>
+        <v>152390885.68000001</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>297</v>
@@ -6439,16 +6265,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D161" s="3">
-        <v>152377704.44</v>
+        <v>-209777703</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>298</v>
@@ -6456,16 +6282,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D162" s="3">
-        <v>191133031.75999999</v>
+        <v>-209777703</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>299</v>
@@ -6473,16 +6299,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D163" s="3">
-        <v>208281867.05000001</v>
+        <v>58283634.299999997</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>300</v>
@@ -6490,16 +6316,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D164" s="3">
-        <v>214282991.87</v>
+        <v>58325655.299999997</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>301</v>
@@ -6507,16 +6333,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C165" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D165" s="3">
-        <v>216245768.77000001</v>
+        <v>258819895.75</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>302</v>
@@ -6524,16 +6350,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C166" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D166" s="3">
-        <v>39735266.969999999</v>
+        <v>92468937.180000007</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>303</v>
@@ -6541,16 +6367,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C167" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D167" s="3">
-        <v>13040593.310000001</v>
+        <v>-209777703</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>304</v>
@@ -6558,16 +6384,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C168" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D168" s="3">
-        <v>46388016.049999997</v>
+        <v>-209777703</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>305</v>
@@ -6575,16 +6401,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C169" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D169" s="3">
-        <v>46018441.649999999</v>
+        <v>103184779.42</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>306</v>
@@ -6592,16 +6418,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C170" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D170" s="3">
-        <v>322901377.95999998</v>
+        <v>159290923.68000001</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>307</v>
@@ -6609,16 +6435,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C171" t="s">
         <v>135</v>
       </c>
       <c r="D171" s="3">
-        <v>159484055.28</v>
+        <v>100809961.54000001</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>308</v>
@@ -6626,16 +6452,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C172" t="s">
         <v>135</v>
       </c>
       <c r="D172" s="3">
-        <v>172186082.44999999</v>
+        <v>159677276.41</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>309</v>
@@ -6643,16 +6469,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C173" t="s">
         <v>135</v>
       </c>
       <c r="D173" s="3">
-        <v>159585373.78</v>
+        <v>161137965.47999999</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>310</v>
@@ -6660,16 +6486,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C174" t="s">
         <v>135</v>
       </c>
       <c r="D174" s="3">
-        <v>159457850.31999999</v>
+        <v>97582172.469999999</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>311</v>
@@ -6677,16 +6503,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C175" t="s">
         <v>135</v>
       </c>
       <c r="D175" s="3">
-        <v>160906902.96000001</v>
+        <v>152415210.88</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>312</v>
@@ -6694,33 +6520,33 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C176" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D176" s="3">
-        <v>160108604.5</v>
-      </c>
-      <c r="E176" s="2" t="s">
+        <v>-209777703</v>
+      </c>
+      <c r="E176" s="4" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C177" t="s">
         <v>135</v>
       </c>
       <c r="D177" s="3">
-        <v>152390885.68000001</v>
+        <v>207808520.81</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>314</v>
@@ -6728,16 +6554,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C178" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D178" s="3">
-        <v>-209777703</v>
+        <v>260331102.24000001</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>315</v>
@@ -6745,16 +6571,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C179" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D179" s="3">
-        <v>-209777703</v>
+        <v>159311391.75999999</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>316</v>
@@ -6762,16 +6588,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C180" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D180" s="3">
-        <v>33515222.010000002</v>
+        <v>164115188.77000001</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>317</v>
@@ -6779,16 +6605,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C181" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D181" s="3">
-        <v>58283634.299999997</v>
+        <v>207822739.37</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>318</v>
@@ -6796,16 +6622,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C182" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D182" s="3">
-        <v>58325655.299999997</v>
+        <v>176297124.88999999</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>319</v>
@@ -6813,16 +6639,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B183" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C183" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D183" s="3">
-        <v>214852951.83000001</v>
+        <v>175862155.03999999</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>320</v>
@@ -6830,16 +6656,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B184" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C184" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D184" s="3">
-        <v>388830662.72000003</v>
+        <v>175711035.77000001</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>321</v>
@@ -6847,16 +6673,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B185" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C185" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D185" s="3">
-        <v>176132863.03</v>
+        <v>155883475.03999999</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>322</v>
@@ -6864,16 +6690,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B186" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C186" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D186" s="3">
-        <v>176243858.84999999</v>
+        <v>159418322.09999999</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>323</v>
@@ -6881,16 +6707,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B187" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C187" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D187" s="3">
-        <v>258819895.75</v>
+        <v>159507250.84999999</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>324</v>
@@ -6898,16 +6724,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B188" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C188" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D188" s="3">
-        <v>92468937.180000007</v>
+        <v>-209777703</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>325</v>
@@ -6915,16 +6741,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B189" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C189" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D189" s="3">
-        <v>-209777703</v>
+        <v>159428188.09999999</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>326</v>
@@ -6932,16 +6758,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B190" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C190" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D190" s="3">
-        <v>-209777703</v>
+        <v>161276762.80000001</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>327</v>
@@ -6949,16 +6775,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B191" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C191" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D191" s="3">
-        <v>186643384.56999999</v>
+        <v>31380979.199999999</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>328</v>
@@ -6966,16 +6792,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B192" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C192" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D192" s="3">
-        <v>185989083.27000001</v>
+        <v>31380979.199999999</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>329</v>
@@ -6983,16 +6809,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B193" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C193" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D193" s="3">
-        <v>103184779.42</v>
+        <v>40212143.780000001</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>330</v>
@@ -7000,16 +6826,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B194" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C194" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D194" s="3">
-        <v>159290923.68000001</v>
+        <v>40749565.990000002</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>331</v>
@@ -7017,16 +6843,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B195" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C195" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D195" s="3">
-        <v>100809961.54000001</v>
+        <v>253346265.56999999</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>332</v>
@@ -7034,16 +6860,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B196" t="s">
         <v>97</v>
       </c>
       <c r="C196" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D196" s="3">
-        <v>159677276.41</v>
+        <v>260322922.03999999</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>333</v>
@@ -7051,7 +6877,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B197" t="s">
         <v>97</v>
@@ -7060,7 +6886,7 @@
         <v>135</v>
       </c>
       <c r="D197" s="3">
-        <v>161137965.47999999</v>
+        <v>176256582.88999999</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>334</v>
@@ -7068,7 +6894,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B198" t="s">
         <v>97</v>
@@ -7077,7 +6903,7 @@
         <v>135</v>
       </c>
       <c r="D198" s="3">
-        <v>97582172.469999999</v>
+        <v>180303256.56999999</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>335</v>
@@ -7085,7 +6911,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B199" t="s">
         <v>97</v>
@@ -7094,7 +6920,7 @@
         <v>135</v>
       </c>
       <c r="D199" s="3">
-        <v>152415210.88</v>
+        <v>168974923.66</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>336</v>
@@ -7102,16 +6928,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B200" t="s">
         <v>97</v>
       </c>
       <c r="C200" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D200" s="3">
-        <v>31742344.079999998</v>
+        <v>44662859.5</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>337</v>
@@ -7119,16 +6945,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B201" t="s">
         <v>97</v>
       </c>
       <c r="C201" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D201" s="3">
-        <v>88233953.219999999</v>
+        <v>260331102.24000001</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>338</v>
@@ -7136,16 +6962,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B202" t="s">
         <v>97</v>
       </c>
       <c r="C202" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D202" s="3">
-        <v>-209777703</v>
+        <v>260331102.24000001</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>339</v>
@@ -7153,7 +6979,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B203" t="s">
         <v>97</v>
@@ -7162,7 +6988,7 @@
         <v>135</v>
       </c>
       <c r="D203" s="3">
-        <v>207808520.81</v>
+        <v>159379493.56</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>340</v>
@@ -7170,16 +6996,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B204" t="s">
         <v>97</v>
       </c>
       <c r="C204" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D204" s="3">
-        <v>197906594.74000001</v>
+        <v>-209777703</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>341</v>
@@ -7187,16 +7013,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B205" t="s">
         <v>97</v>
       </c>
       <c r="C205" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D205" s="3">
-        <v>61919054.340000004</v>
+        <v>207818333.69</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>342</v>
@@ -7204,16 +7030,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B206" t="s">
         <v>97</v>
       </c>
       <c r="C206" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D206" s="3">
-        <v>40535620.890000001</v>
+        <v>207810546.34999999</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>343</v>
@@ -7221,16 +7047,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B207" t="s">
         <v>97</v>
       </c>
       <c r="C207" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D207" s="3">
-        <v>61911834.390000001</v>
+        <v>176029547.69</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>344</v>
@@ -7238,16 +7064,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="B208" t="s">
         <v>97</v>
       </c>
       <c r="C208" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D208" s="3">
-        <v>11648403.970000001</v>
+        <v>65741615.380000003</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>345</v>
@@ -7255,16 +7081,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B209" t="s">
         <v>97</v>
       </c>
       <c r="C209" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D209" s="3">
-        <v>260331102.24000001</v>
+        <v>-209777703</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>346</v>
@@ -7272,16 +7098,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B210" t="s">
         <v>97</v>
       </c>
       <c r="C210" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D210" s="3">
-        <v>159311391.75999999</v>
+        <v>-209777703</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>347</v>
@@ -7289,16 +7115,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B211" t="s">
         <v>97</v>
       </c>
       <c r="C211" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D211" s="3">
-        <v>164115188.77000001</v>
+        <v>-209777703</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>348</v>
@@ -7306,16 +7132,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B212" t="s">
         <v>97</v>
       </c>
       <c r="C212" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D212" s="3">
-        <v>207822739.37</v>
+        <v>282252581.18000001</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>349</v>
@@ -7323,16 +7149,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B213" t="s">
         <v>97</v>
       </c>
       <c r="C213" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D213" s="3">
-        <v>176297124.88999999</v>
+        <v>333723883.48000002</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>350</v>
@@ -7340,16 +7166,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B214" t="s">
         <v>97</v>
       </c>
       <c r="C214" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D214" s="3">
-        <v>175862155.03999999</v>
+        <v>333724585.17000002</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>351</v>
@@ -7357,16 +7183,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B215" t="s">
         <v>97</v>
       </c>
       <c r="C215" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D215" s="3">
-        <v>40571190.039999999</v>
+        <v>305390382.52999997</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>352</v>
@@ -7374,16 +7200,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B216" t="s">
         <v>97</v>
       </c>
       <c r="C216" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D216" s="3">
-        <v>175711035.77000001</v>
+        <v>409351379.13999999</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>353</v>
@@ -7391,16 +7217,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B217" t="s">
         <v>97</v>
       </c>
       <c r="C217" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D217" s="3">
-        <v>88184642.370000005</v>
+        <v>-209777703</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>354</v>
@@ -7408,1107 +7234,31 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B218" t="s">
         <v>97</v>
       </c>
       <c r="C218" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D218" s="3">
-        <v>155883475.03999999</v>
+        <v>260331102.24000001</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>115</v>
-      </c>
-      <c r="B219" t="s">
-        <v>97</v>
-      </c>
-      <c r="C219" t="s">
-        <v>135</v>
-      </c>
-      <c r="D219" s="3">
-        <v>159418322.09999999</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>115</v>
-      </c>
-      <c r="B220" t="s">
-        <v>97</v>
-      </c>
-      <c r="C220" t="s">
-        <v>135</v>
-      </c>
-      <c r="D220" s="3">
-        <v>159507250.84999999</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>357</v>
+      <c r="D220">
+        <f>SUM(D2:D218)+20*1500000000</f>
+        <v>60706649218.009995</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>115</v>
-      </c>
-      <c r="B221" t="s">
-        <v>97</v>
-      </c>
-      <c r="C221" t="s">
-        <v>135</v>
-      </c>
       <c r="D221" s="3">
-        <v>88222539.710000008</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>115</v>
-      </c>
-      <c r="B222" t="s">
-        <v>97</v>
-      </c>
-      <c r="C222" t="s">
-        <v>161</v>
-      </c>
-      <c r="D222" s="3">
-        <v>-209777703</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>117</v>
-      </c>
-      <c r="B223" t="s">
-        <v>97</v>
-      </c>
-      <c r="C223" t="s">
-        <v>156</v>
-      </c>
-      <c r="D223" s="3">
-        <v>27975466.050000001</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>117</v>
-      </c>
-      <c r="B224" t="s">
-        <v>97</v>
-      </c>
-      <c r="C224" t="s">
-        <v>156</v>
-      </c>
-      <c r="D224" s="3">
-        <v>40443741.799999997</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>123</v>
-      </c>
-      <c r="B225" t="s">
-        <v>97</v>
-      </c>
-      <c r="C225" t="s">
-        <v>135</v>
-      </c>
-      <c r="D225" s="3">
-        <v>159428188.09999999</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>103</v>
-      </c>
-      <c r="B226" t="s">
-        <v>97</v>
-      </c>
-      <c r="C226" t="s">
-        <v>135</v>
-      </c>
-      <c r="D226" s="3">
-        <v>77339792.530000001</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>130</v>
-      </c>
-      <c r="B227" t="s">
-        <v>97</v>
-      </c>
-      <c r="C227" t="s">
-        <v>135</v>
-      </c>
-      <c r="D227" s="3">
-        <v>87394791.689999998</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>130</v>
-      </c>
-      <c r="B228" t="s">
-        <v>97</v>
-      </c>
-      <c r="C228" t="s">
-        <v>138</v>
-      </c>
-      <c r="D228" s="3">
-        <v>559550515.17999995</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>129</v>
-      </c>
-      <c r="B229" t="s">
-        <v>97</v>
-      </c>
-      <c r="C229" t="s">
-        <v>138</v>
-      </c>
-      <c r="D229" s="3">
-        <v>260344751.90000001</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>99</v>
-      </c>
-      <c r="B230" t="s">
-        <v>97</v>
-      </c>
-      <c r="C230" t="s">
-        <v>135</v>
-      </c>
-      <c r="D230" s="3">
-        <v>161276762.80000001</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>99</v>
-      </c>
-      <c r="B231" t="s">
-        <v>97</v>
-      </c>
-      <c r="C231" t="s">
-        <v>138</v>
-      </c>
-      <c r="D231" s="3">
-        <v>198810080.06999999</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>106</v>
-      </c>
-      <c r="B232" t="s">
-        <v>97</v>
-      </c>
-      <c r="C232" t="s">
-        <v>156</v>
-      </c>
-      <c r="D232" s="3">
-        <v>28786525.890000001</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>106</v>
-      </c>
-      <c r="B233" t="s">
-        <v>97</v>
-      </c>
-      <c r="C233" t="s">
-        <v>156</v>
-      </c>
-      <c r="D233" s="3">
-        <v>31380979.199999999</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>106</v>
-      </c>
-      <c r="B234" t="s">
-        <v>97</v>
-      </c>
-      <c r="C234" t="s">
-        <v>156</v>
-      </c>
-      <c r="D234" s="3">
-        <v>31380979.199999999</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>106</v>
-      </c>
-      <c r="B235" t="s">
-        <v>97</v>
-      </c>
-      <c r="C235" t="s">
-        <v>156</v>
-      </c>
-      <c r="D235" s="3">
-        <v>40212143.780000001</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>106</v>
-      </c>
-      <c r="B236" t="s">
-        <v>97</v>
-      </c>
-      <c r="C236" t="s">
-        <v>156</v>
-      </c>
-      <c r="D236" s="3">
-        <v>39835623.369999997</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>106</v>
-      </c>
-      <c r="B237" t="s">
-        <v>97</v>
-      </c>
-      <c r="C237" t="s">
-        <v>156</v>
-      </c>
-      <c r="D237" s="3">
-        <v>40749565.990000002</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>106</v>
-      </c>
-      <c r="B238" t="s">
-        <v>97</v>
-      </c>
-      <c r="C238" t="s">
-        <v>156</v>
-      </c>
-      <c r="D238" s="3">
-        <v>40809333.219999999</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>106</v>
-      </c>
-      <c r="B239" t="s">
-        <v>97</v>
-      </c>
-      <c r="C239" t="s">
-        <v>156</v>
-      </c>
-      <c r="D239" s="3">
-        <v>40535620.890000001</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>126</v>
-      </c>
-      <c r="B240" t="s">
-        <v>97</v>
-      </c>
-      <c r="C240" t="s">
-        <v>156</v>
-      </c>
-      <c r="D240" s="3">
-        <v>62049814.189999998</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>126</v>
-      </c>
-      <c r="B241" t="s">
-        <v>97</v>
-      </c>
-      <c r="C241" t="s">
-        <v>156</v>
-      </c>
-      <c r="D241" s="3">
-        <v>61747782.099999987</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>122</v>
-      </c>
-      <c r="B242" t="s">
-        <v>97</v>
-      </c>
-      <c r="C242" t="s">
-        <v>138</v>
-      </c>
-      <c r="D242" s="3">
-        <v>253346265.56999999</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>122</v>
-      </c>
-      <c r="B243" t="s">
-        <v>97</v>
-      </c>
-      <c r="C243" t="s">
-        <v>138</v>
-      </c>
-      <c r="D243" s="3">
-        <v>260322922.03999999</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>122</v>
-      </c>
-      <c r="B244" t="s">
-        <v>97</v>
-      </c>
-      <c r="C244" t="s">
-        <v>156</v>
-      </c>
-      <c r="D244" s="3">
-        <v>41719748.659999996</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>127</v>
-      </c>
-      <c r="B245" t="s">
-        <v>97</v>
-      </c>
-      <c r="C245" t="s">
-        <v>135</v>
-      </c>
-      <c r="D245" s="3">
-        <v>176256582.88999999</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>127</v>
-      </c>
-      <c r="B246" t="s">
-        <v>97</v>
-      </c>
-      <c r="C246" t="s">
-        <v>135</v>
-      </c>
-      <c r="D246" s="3">
-        <v>88242745.060000002</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>127</v>
-      </c>
-      <c r="B247" t="s">
-        <v>97</v>
-      </c>
-      <c r="C247" t="s">
-        <v>138</v>
-      </c>
-      <c r="D247" s="3">
-        <v>195611527.77000001</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>127</v>
-      </c>
-      <c r="B248" t="s">
-        <v>97</v>
-      </c>
-      <c r="C248" t="s">
-        <v>138</v>
-      </c>
-      <c r="D248" s="3">
-        <v>190975015.84999999</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>102</v>
-      </c>
-      <c r="B249" t="s">
-        <v>97</v>
-      </c>
-      <c r="C249" t="s">
-        <v>135</v>
-      </c>
-      <c r="D249" s="3">
-        <v>218550359.96000001</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>102</v>
-      </c>
-      <c r="B250" t="s">
-        <v>97</v>
-      </c>
-      <c r="C250" t="s">
-        <v>135</v>
-      </c>
-      <c r="D250" s="3">
-        <v>180303256.56999999</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>102</v>
-      </c>
-      <c r="B251" t="s">
-        <v>97</v>
-      </c>
-      <c r="C251" t="s">
-        <v>135</v>
-      </c>
-      <c r="D251" s="3">
-        <v>168974923.66</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>112</v>
-      </c>
-      <c r="B252" t="s">
-        <v>97</v>
-      </c>
-      <c r="C252" t="s">
-        <v>135</v>
-      </c>
-      <c r="D252" s="3">
-        <v>44662859.5</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>107</v>
-      </c>
-      <c r="B253" t="s">
-        <v>97</v>
-      </c>
-      <c r="C253" t="s">
-        <v>138</v>
-      </c>
-      <c r="D253" s="3">
-        <v>260331102.24000001</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>107</v>
-      </c>
-      <c r="B254" t="s">
-        <v>97</v>
-      </c>
-      <c r="C254" t="s">
-        <v>138</v>
-      </c>
-      <c r="D254" s="3">
-        <v>260331102.24000001</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>110</v>
-      </c>
-      <c r="B255" t="s">
-        <v>97</v>
-      </c>
-      <c r="C255" t="s">
-        <v>135</v>
-      </c>
-      <c r="D255" s="3">
-        <v>159379493.56</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>110</v>
-      </c>
-      <c r="B256" t="s">
-        <v>97</v>
-      </c>
-      <c r="C256" t="s">
-        <v>161</v>
-      </c>
-      <c r="D256" s="3">
-        <v>-209777703</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>100</v>
-      </c>
-      <c r="B257" t="s">
-        <v>97</v>
-      </c>
-      <c r="C257" t="s">
-        <v>135</v>
-      </c>
-      <c r="D257" s="3">
-        <v>207818333.69</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>100</v>
-      </c>
-      <c r="B258" t="s">
-        <v>97</v>
-      </c>
-      <c r="C258" t="s">
-        <v>135</v>
-      </c>
-      <c r="D258" s="3">
-        <v>207810546.34999999</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>100</v>
-      </c>
-      <c r="B259" t="s">
-        <v>97</v>
-      </c>
-      <c r="C259" t="s">
-        <v>135</v>
-      </c>
-      <c r="D259" s="3">
-        <v>176029547.69</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>100</v>
-      </c>
-      <c r="B260" t="s">
-        <v>97</v>
-      </c>
-      <c r="C260" t="s">
-        <v>135</v>
-      </c>
-      <c r="D260" s="3">
-        <v>88242745.060000002</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>100</v>
-      </c>
-      <c r="B261" t="s">
-        <v>97</v>
-      </c>
-      <c r="C261" t="s">
-        <v>138</v>
-      </c>
-      <c r="D261" s="3">
-        <v>251785100.25999999</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>100</v>
-      </c>
-      <c r="B262" t="s">
-        <v>97</v>
-      </c>
-      <c r="C262" t="s">
-        <v>156</v>
-      </c>
-      <c r="D262" s="3">
-        <v>65741615.380000003</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>100</v>
-      </c>
-      <c r="B263" t="s">
-        <v>97</v>
-      </c>
-      <c r="C263" t="s">
-        <v>161</v>
-      </c>
-      <c r="D263" s="3">
-        <v>-209777703</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>100</v>
-      </c>
-      <c r="B264" t="s">
-        <v>97</v>
-      </c>
-      <c r="C264" t="s">
-        <v>161</v>
-      </c>
-      <c r="D264" s="3">
-        <v>-209777703</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>100</v>
-      </c>
-      <c r="B265" t="s">
-        <v>97</v>
-      </c>
-      <c r="C265" t="s">
-        <v>161</v>
-      </c>
-      <c r="D265" s="3">
-        <v>-209777703</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>104</v>
-      </c>
-      <c r="B266" t="s">
-        <v>97</v>
-      </c>
-      <c r="C266" t="s">
-        <v>156</v>
-      </c>
-      <c r="D266" s="3">
-        <v>40535620.890000001</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>116</v>
-      </c>
-      <c r="B267" t="s">
-        <v>97</v>
-      </c>
-      <c r="C267" t="s">
-        <v>138</v>
-      </c>
-      <c r="D267" s="3">
-        <v>400067361.52999997</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>116</v>
-      </c>
-      <c r="B268" t="s">
-        <v>97</v>
-      </c>
-      <c r="C268" t="s">
-        <v>156</v>
-      </c>
-      <c r="D268" s="3">
-        <v>77019452.019999996</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>116</v>
-      </c>
-      <c r="B269" t="s">
-        <v>97</v>
-      </c>
-      <c r="C269" t="s">
-        <v>156</v>
-      </c>
-      <c r="D269" s="3">
-        <v>77169280.569999993</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>114</v>
-      </c>
-      <c r="B270" t="s">
-        <v>97</v>
-      </c>
-      <c r="C270" t="s">
-        <v>138</v>
-      </c>
-      <c r="D270" s="3">
-        <v>360450486.38999999</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>114</v>
-      </c>
-      <c r="B271" t="s">
-        <v>97</v>
-      </c>
-      <c r="C271" t="s">
-        <v>138</v>
-      </c>
-      <c r="D271" s="3">
-        <v>37778653.630000003</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>114</v>
-      </c>
-      <c r="B272" t="s">
-        <v>97</v>
-      </c>
-      <c r="C272" t="s">
-        <v>138</v>
-      </c>
-      <c r="D272" s="3">
-        <v>202085397.47</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>118</v>
-      </c>
-      <c r="B273" t="s">
-        <v>97</v>
-      </c>
-      <c r="C273" t="s">
-        <v>135</v>
-      </c>
-      <c r="D273" s="3">
-        <v>159452567.03</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>118</v>
-      </c>
-      <c r="B274" t="s">
-        <v>97</v>
-      </c>
-      <c r="C274" t="s">
-        <v>138</v>
-      </c>
-      <c r="D274" s="3">
-        <v>282252581.18000001</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>118</v>
-      </c>
-      <c r="B275" t="s">
-        <v>97</v>
-      </c>
-      <c r="C275" t="s">
-        <v>138</v>
-      </c>
-      <c r="D275" s="3">
-        <v>333723883.48000002</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>118</v>
-      </c>
-      <c r="B276" t="s">
-        <v>97</v>
-      </c>
-      <c r="C276" t="s">
-        <v>138</v>
-      </c>
-      <c r="D276" s="3">
-        <v>333724585.17000002</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>118</v>
-      </c>
-      <c r="B277" t="s">
-        <v>97</v>
-      </c>
-      <c r="C277" t="s">
-        <v>138</v>
-      </c>
-      <c r="D277" s="3">
-        <v>305390382.52999997</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>118</v>
-      </c>
-      <c r="B278" t="s">
-        <v>97</v>
-      </c>
-      <c r="C278" t="s">
-        <v>138</v>
-      </c>
-      <c r="D278" s="3">
-        <v>409351379.13999999</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>113</v>
-      </c>
-      <c r="B279" t="s">
-        <v>97</v>
-      </c>
-      <c r="C279" t="s">
-        <v>135</v>
-      </c>
-      <c r="D279" s="3">
-        <v>152705884.72999999</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>113</v>
-      </c>
-      <c r="B280" t="s">
-        <v>97</v>
-      </c>
-      <c r="C280" t="s">
-        <v>161</v>
-      </c>
-      <c r="D280" s="3">
-        <v>-209777703</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>98</v>
-      </c>
-      <c r="B281" t="s">
-        <v>97</v>
-      </c>
-      <c r="C281" t="s">
-        <v>138</v>
-      </c>
-      <c r="D281" s="3">
-        <v>204726183.75999999</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>131</v>
-      </c>
-      <c r="B282" t="s">
-        <v>97</v>
-      </c>
-      <c r="C282" t="s">
-        <v>138</v>
-      </c>
-      <c r="D282" s="3">
-        <v>260331102.24000001</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>419</v>
+        <f>SUM(D2:D218)</f>
+        <v>30706649218.009991</v>
       </c>
     </row>
   </sheetData>
@@ -8522,278 +7272,214 @@
     <hyperlink ref="E8" r:id="rId7" xr:uid="{983180EF-73B0-450B-B872-00D51FF16437}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{E49F322D-47CC-49A6-9DD5-98E1BC6D04B4}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{7A33B00E-DDF7-4467-8C6F-5DC462B12730}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{F541BB0A-25A8-41B8-86EB-E656FD071B3D}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{E6D53CE8-897A-4AA8-9AC7-24A8E8EA83F5}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{A582BA9D-BCE1-4049-90BD-3DCC75E567CA}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{E5958981-FA19-4732-9853-684830D75199}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{677D4820-BEF8-4EA3-AE24-1F1175123DEB}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{B5CA9593-03F0-492F-B196-FA754F72EE76}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{8D6E03FA-A951-4B30-AEE2-8E47137C3B43}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{5B468CAC-9621-4509-9833-EE5B4F6E6CAF}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{7F7AA9D5-913F-4B14-99AD-83BEDFB49833}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{079DDCFE-E579-4230-AE3D-847170D9A152}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{6BB718BE-6B1F-4F01-B86F-71F1453EDF73}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{FDDB2604-5AB1-4B4C-AF58-9C3DED3BCCE2}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{3A796E41-1A71-4892-A16C-D077BEBCE3AD}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{54F78C33-9631-4F2F-9E06-C7A482FCBB77}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{A13E999A-6103-4152-9383-2AE492A0DE76}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{0DD3AAE9-EBAD-4B4E-9A0F-243B8973C673}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{ABAC79C1-C86D-4ED6-8DD8-4CBAE894956E}"/>
-    <hyperlink ref="E28" r:id="rId27" xr:uid="{95587C12-A52E-4BFE-889F-F655B51B1EE3}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{AC1F9975-7DF7-4235-A125-58F648C36EC4}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{874EC906-C79C-4C2B-ACFC-6FF1C9746690}"/>
-    <hyperlink ref="E31" r:id="rId30" xr:uid="{9E423B3D-93AF-4671-AF25-88D91A82E666}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{3C08B761-F3E3-42F6-B9F4-0A9C353ADBCC}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{64C15274-2CC8-4D70-8604-E8177FCF92E6}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{1CAE38DF-835A-4B14-B8C8-4B9191610103}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{5AE4D215-2B01-4B36-BC77-36A955CDED60}"/>
-    <hyperlink ref="E36" r:id="rId35" xr:uid="{E1C5EFC0-939F-45A7-8ED1-986804DD06F2}"/>
-    <hyperlink ref="E37" r:id="rId36" xr:uid="{9927766E-D6BF-471B-8ABB-1CFBAA951AC9}"/>
-    <hyperlink ref="E38" r:id="rId37" xr:uid="{AFB89DDB-04EA-4E25-9E4A-D788677349E9}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{F7ED09D8-D257-40BD-8506-C84916D89860}"/>
-    <hyperlink ref="E40" r:id="rId39" xr:uid="{780EFCA9-5ABA-4732-A501-F5E2E9B00E14}"/>
-    <hyperlink ref="E41" r:id="rId40" xr:uid="{68111746-58A0-40F1-A3E8-0E752EA969D9}"/>
-    <hyperlink ref="E42" r:id="rId41" xr:uid="{0DDEB4A1-80A8-4787-AB9A-075620089B59}"/>
-    <hyperlink ref="E43" r:id="rId42" xr:uid="{CA463262-86EB-4CC3-A501-F6873FB3FEFA}"/>
-    <hyperlink ref="E44" r:id="rId43" xr:uid="{7ECDA393-C34D-4DFE-A91A-8AC82CB5BA41}"/>
-    <hyperlink ref="E45" r:id="rId44" xr:uid="{D6A37500-2396-4C81-87AA-2D31BC36B95E}"/>
-    <hyperlink ref="E46" r:id="rId45" xr:uid="{ACA37ADB-3A3E-432B-9F5B-C29EC30F0701}"/>
-    <hyperlink ref="E47" r:id="rId46" xr:uid="{B297C5AE-AE31-43C8-92CD-D5F9EC9E9200}"/>
-    <hyperlink ref="E48" r:id="rId47" xr:uid="{CA647848-DA1B-4667-A06C-A8634995430F}"/>
-    <hyperlink ref="E49" r:id="rId48" xr:uid="{028FC4BC-0649-4560-93DF-A35EEA97C322}"/>
-    <hyperlink ref="E50" r:id="rId49" xr:uid="{E71F564A-C8A8-4ECC-BC3B-B46C5D989215}"/>
-    <hyperlink ref="E51" r:id="rId50" xr:uid="{5A4BDF90-3FBE-40DB-A8B2-9CB5642CF19B}"/>
-    <hyperlink ref="E52" r:id="rId51" xr:uid="{460CBA8C-E1FC-45F9-9613-66F3515B3941}"/>
-    <hyperlink ref="E53" r:id="rId52" xr:uid="{5C854820-7A16-474D-B02F-071EF6141B4C}"/>
-    <hyperlink ref="E54" r:id="rId53" xr:uid="{9F5013DE-0A97-4891-9033-9D46C6751910}"/>
-    <hyperlink ref="E55" r:id="rId54" xr:uid="{F2D499CA-C0B5-48D1-B9F2-43F2CB3B542A}"/>
-    <hyperlink ref="E56" r:id="rId55" xr:uid="{41C1F627-2B5E-41F7-8F1E-8E2B466D87CB}"/>
-    <hyperlink ref="E57" r:id="rId56" xr:uid="{AE4BC246-CA83-4652-84CC-4B789C1A8525}"/>
-    <hyperlink ref="E58" r:id="rId57" xr:uid="{1F1FB1E7-CFB3-479D-A989-4BB5FE5C6AE6}"/>
-    <hyperlink ref="E59" r:id="rId58" xr:uid="{234516C3-A2C2-4382-AE4D-4FF07C399758}"/>
-    <hyperlink ref="E60" r:id="rId59" xr:uid="{4E568BB8-C44F-4E83-A5F8-5A019D5289CE}"/>
-    <hyperlink ref="E61" r:id="rId60" xr:uid="{D4E2207D-10C3-45EA-9662-1DF3ABD4F9E6}"/>
-    <hyperlink ref="E62" r:id="rId61" xr:uid="{CEE945D4-C548-4A06-9428-9AB63CC67A37}"/>
-    <hyperlink ref="E63" r:id="rId62" xr:uid="{1CD31C53-E4AA-453B-986F-DC6CEE6A504E}"/>
-    <hyperlink ref="E64" r:id="rId63" xr:uid="{68D53033-D56C-434D-A5B8-1D6BCB8B89AF}"/>
-    <hyperlink ref="E65" r:id="rId64" xr:uid="{887809CA-3C58-42B6-804E-A7A83C46C66B}"/>
-    <hyperlink ref="E66" r:id="rId65" xr:uid="{2F6E721D-1342-423C-862E-00047E61D5EB}"/>
-    <hyperlink ref="E67" r:id="rId66" xr:uid="{4E3B632A-EECE-4A7E-88A9-86A97CBDEC0D}"/>
-    <hyperlink ref="E68" r:id="rId67" xr:uid="{EF15F7A6-7753-490F-8438-16635420FBF6}"/>
-    <hyperlink ref="E69" r:id="rId68" xr:uid="{8269BAD3-0A71-4599-8E8B-F8D55DE0082D}"/>
-    <hyperlink ref="E70" r:id="rId69" xr:uid="{9D1A5FE5-0153-4A93-A4AC-A7B372628CDD}"/>
-    <hyperlink ref="E71" r:id="rId70" xr:uid="{D6C45320-A822-4FF8-B150-D600422EA9B5}"/>
-    <hyperlink ref="E72" r:id="rId71" xr:uid="{394BFCC6-4B13-46D4-9B31-A13837140FB8}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{DBE9AD03-8333-4487-9496-011E08653E30}"/>
-    <hyperlink ref="E74" r:id="rId73" xr:uid="{1B857D54-ED82-4E1C-8991-0FCF7A730ED7}"/>
-    <hyperlink ref="E75" r:id="rId74" xr:uid="{101A1A2D-2641-4E25-8C2B-A21D2F00A398}"/>
-    <hyperlink ref="E76" r:id="rId75" xr:uid="{5231FDB2-60F3-46B0-A178-7A2B878B0E22}"/>
-    <hyperlink ref="E77" r:id="rId76" xr:uid="{3814A131-3508-4F37-930D-238DEA9DC119}"/>
-    <hyperlink ref="E78" r:id="rId77" xr:uid="{18333606-B0F7-4244-A646-C498ECF2FE50}"/>
-    <hyperlink ref="E79" r:id="rId78" xr:uid="{1B925DBB-0366-4D4F-80F9-EE566160A2F7}"/>
-    <hyperlink ref="E80" r:id="rId79" xr:uid="{696E221C-977C-4A27-9E43-0F11C2C1A3D1}"/>
-    <hyperlink ref="E81" r:id="rId80" xr:uid="{AA1A8D9C-403B-47FE-9605-B4B5A007641A}"/>
-    <hyperlink ref="E82" r:id="rId81" xr:uid="{03409A16-2892-4371-85C3-982F53F3C6FA}"/>
-    <hyperlink ref="E83" r:id="rId82" xr:uid="{F76FA251-886B-4338-8B76-88E0AE83D7B7}"/>
-    <hyperlink ref="E84" r:id="rId83" xr:uid="{5164DC11-0A9D-450C-AF55-FAA59CB98660}"/>
-    <hyperlink ref="E85" r:id="rId84" xr:uid="{E6F0E4BA-C4A2-4C35-A2B3-C923F446559A}"/>
-    <hyperlink ref="E86" r:id="rId85" xr:uid="{71140FFE-85F1-4D73-8E01-F38BBA2DCFEB}"/>
-    <hyperlink ref="E87" r:id="rId86" xr:uid="{9FB3DDBA-5E92-4A21-982D-0320BCEA1634}"/>
-    <hyperlink ref="E88" r:id="rId87" xr:uid="{7D091470-8219-4904-BE4A-F5D89E354A1A}"/>
-    <hyperlink ref="E89" r:id="rId88" xr:uid="{E0F23430-E2A9-4CC6-B2F5-2E1C90FA222B}"/>
-    <hyperlink ref="E90" r:id="rId89" xr:uid="{D6F676B6-FF96-43A5-BE9B-C4D88C74ABBD}"/>
-    <hyperlink ref="E91" r:id="rId90" xr:uid="{A0BEF11A-E254-4ED9-BE51-437D2D7522DC}"/>
-    <hyperlink ref="E92" r:id="rId91" xr:uid="{544A6F21-D49C-421D-ACBC-15EBEBD582DF}"/>
-    <hyperlink ref="E93" r:id="rId92" xr:uid="{EB2BCD48-9560-416A-9AA1-0238D73AD7F4}"/>
-    <hyperlink ref="E94" r:id="rId93" xr:uid="{3506E0B0-83B8-43F2-9509-A2821DECBC7F}"/>
-    <hyperlink ref="E95" r:id="rId94" xr:uid="{B3B3E37C-E782-4A63-8B7D-BB4F7E44991B}"/>
-    <hyperlink ref="E96" r:id="rId95" xr:uid="{27D5F791-1024-4D10-AE65-C2575D49ED1B}"/>
-    <hyperlink ref="E97" r:id="rId96" xr:uid="{795D5FB7-FF5B-4A88-AE94-0622A0C3D321}"/>
-    <hyperlink ref="E98" r:id="rId97" xr:uid="{A9CB511C-F51C-4344-B347-29D28F5812CE}"/>
-    <hyperlink ref="E99" r:id="rId98" xr:uid="{3181F587-4D54-4E72-AAE7-29E8E2BA4ECB}"/>
-    <hyperlink ref="E100" r:id="rId99" xr:uid="{66DB43F9-5A61-4CB9-A3CD-8026B8447457}"/>
-    <hyperlink ref="E101" r:id="rId100" xr:uid="{6254CAD7-DEBD-4D79-9333-F0115C247B1A}"/>
-    <hyperlink ref="E102" r:id="rId101" xr:uid="{09CE2A72-D740-4A0D-8201-005F496E33E8}"/>
-    <hyperlink ref="E103" r:id="rId102" xr:uid="{74F1D2DA-B161-4F7F-95C9-60514474D5B3}"/>
-    <hyperlink ref="E104" r:id="rId103" xr:uid="{47568925-57C5-4681-BC51-658AE436BD92}"/>
-    <hyperlink ref="E105" r:id="rId104" xr:uid="{3AC2CAF6-F24C-4242-99F3-67AC727958BC}"/>
-    <hyperlink ref="E106" r:id="rId105" xr:uid="{3BD3363D-B3F9-4AB5-978D-8177A2AB688B}"/>
-    <hyperlink ref="E107" r:id="rId106" xr:uid="{6F800612-CF18-4256-AFAC-E236011353A4}"/>
-    <hyperlink ref="E108" r:id="rId107" xr:uid="{FF875F64-A4BA-4EB9-9F1C-C4734F6DC590}"/>
-    <hyperlink ref="E109" r:id="rId108" xr:uid="{B6AED8B6-43D3-4300-9DBE-211016497022}"/>
-    <hyperlink ref="E110" r:id="rId109" xr:uid="{4A8C7B60-FECC-40EC-A704-006EDAB29255}"/>
-    <hyperlink ref="E111" r:id="rId110" xr:uid="{FF07EC34-202B-48A6-A730-888BF38D022B}"/>
-    <hyperlink ref="E112" r:id="rId111" xr:uid="{BF1F5826-4DB7-4F0D-80BF-D5576F544970}"/>
-    <hyperlink ref="E113" r:id="rId112" xr:uid="{59BCE3D2-386B-4923-8AD1-2333E8728C1A}"/>
-    <hyperlink ref="E114" r:id="rId113" xr:uid="{09C76EAC-F415-4C40-AD6F-825D5F4A53B0}"/>
-    <hyperlink ref="E115" r:id="rId114" xr:uid="{963DDA67-314C-4FC2-BE71-A823BA62738E}"/>
-    <hyperlink ref="E116" r:id="rId115" xr:uid="{FF51E552-1416-4E86-A586-E2AE78675BEC}"/>
-    <hyperlink ref="E117" r:id="rId116" xr:uid="{226B51C6-FC1B-4A0C-990C-BBE02FBF96B8}"/>
-    <hyperlink ref="E118" r:id="rId117" xr:uid="{BDD43D98-8C3B-4070-85F2-739233BF513F}"/>
-    <hyperlink ref="E119" r:id="rId118" xr:uid="{A58DD89B-935F-48AB-B491-3980C86EBD77}"/>
-    <hyperlink ref="E120" r:id="rId119" xr:uid="{9AB550F7-6C33-4F85-A2B4-5B3E8D91410A}"/>
-    <hyperlink ref="E121" r:id="rId120" xr:uid="{429B5421-7B09-4736-ACC3-DBA4639A2CD1}"/>
-    <hyperlink ref="E122" r:id="rId121" xr:uid="{1B79DD9B-36B2-4C26-93AE-4C0B5502F139}"/>
-    <hyperlink ref="E123" r:id="rId122" xr:uid="{0247A08F-4D77-40EB-A95A-9EE42AF825F2}"/>
-    <hyperlink ref="E124" r:id="rId123" xr:uid="{6862CB31-777C-484C-A8A5-D9EC5BE77DF7}"/>
-    <hyperlink ref="E125" r:id="rId124" xr:uid="{9F5015F3-ACD8-4AEA-ADAF-22B9DB543E72}"/>
-    <hyperlink ref="E126" r:id="rId125" xr:uid="{92367ADE-AE99-4F8A-942C-9CADB97788C6}"/>
-    <hyperlink ref="E127" r:id="rId126" xr:uid="{28C17051-C63A-4645-BD2A-CC0472282E6F}"/>
-    <hyperlink ref="E128" r:id="rId127" xr:uid="{EB184F58-849F-4334-BE2B-345008665A7C}"/>
-    <hyperlink ref="E129" r:id="rId128" xr:uid="{4A8CABD9-423A-4537-A2FC-776B261CEC76}"/>
-    <hyperlink ref="E130" r:id="rId129" xr:uid="{197A41C8-B7D6-4EF4-92F3-904BED8B052F}"/>
-    <hyperlink ref="E131" r:id="rId130" xr:uid="{8EC5702D-0F7C-416B-8696-E0A94109FC62}"/>
-    <hyperlink ref="E132" r:id="rId131" xr:uid="{97C6BEFD-3E55-4BB8-9F5D-0A1F0FC9AAB3}"/>
-    <hyperlink ref="E133" r:id="rId132" xr:uid="{95D39CF2-F093-4880-B6B7-297B9B1A2A9B}"/>
-    <hyperlink ref="E134" r:id="rId133" xr:uid="{606C9619-8466-4A71-9477-9799CBE73E8D}"/>
-    <hyperlink ref="E135" r:id="rId134" xr:uid="{E9AD9245-8F85-4C49-9CD0-891ADFAA5E0E}"/>
-    <hyperlink ref="E136" r:id="rId135" xr:uid="{697DEF31-2D1C-46DF-9B2C-D56E2639B78C}"/>
-    <hyperlink ref="E137" r:id="rId136" xr:uid="{4077AC53-F41E-43F6-B46D-27678308738A}"/>
-    <hyperlink ref="E138" r:id="rId137" xr:uid="{D88FB303-D4F8-40F3-920E-4B4CAF55E513}"/>
-    <hyperlink ref="E139" r:id="rId138" xr:uid="{E52F3D39-211E-4C6A-81C0-5CA5BE19F3A6}"/>
-    <hyperlink ref="E140" r:id="rId139" xr:uid="{00655649-4893-49E6-869C-EB6D6DD16778}"/>
-    <hyperlink ref="E141" r:id="rId140" xr:uid="{E045D9F3-1944-4074-B829-EE85C0E519C1}"/>
-    <hyperlink ref="E142" r:id="rId141" xr:uid="{7EAF75F4-9952-452A-8A5E-1A08F2358A55}"/>
-    <hyperlink ref="E143" r:id="rId142" xr:uid="{F416182B-8AC7-478A-99BD-F38FAC4ED386}"/>
-    <hyperlink ref="E144" r:id="rId143" xr:uid="{B8D9078E-E0ED-43E2-9477-FDF21F510E62}"/>
-    <hyperlink ref="E145" r:id="rId144" xr:uid="{6414071B-D8B7-467A-A9A2-6D0C46E8235E}"/>
-    <hyperlink ref="E146" r:id="rId145" xr:uid="{A6024FA1-7886-4E13-94F0-9E50413AC453}"/>
-    <hyperlink ref="E147" r:id="rId146" xr:uid="{917012DC-2628-4189-91E1-D7DE334BCEFE}"/>
-    <hyperlink ref="E148" r:id="rId147" xr:uid="{6EF8C80B-6953-434E-81FE-D539128E84D4}"/>
-    <hyperlink ref="E149" r:id="rId148" xr:uid="{170C1751-5ED3-4317-8A8A-0922BA14553C}"/>
-    <hyperlink ref="E150" r:id="rId149" xr:uid="{2E4ED70F-31FF-425F-9266-AF45AA7D7197}"/>
-    <hyperlink ref="E151" r:id="rId150" xr:uid="{4E72423E-F6ED-48FB-A2CB-F4240807FCF8}"/>
-    <hyperlink ref="E152" r:id="rId151" xr:uid="{F1BDF8A8-345E-4C19-ACE0-9878DF38641F}"/>
-    <hyperlink ref="E153" r:id="rId152" xr:uid="{9D6699F5-2777-4F32-B287-B595A1F9D2AD}"/>
-    <hyperlink ref="E154" r:id="rId153" xr:uid="{F3C6B5FE-98B4-4C46-ADD0-C266EF70FC7D}"/>
-    <hyperlink ref="E155" r:id="rId154" xr:uid="{DC7A2311-6ADE-4D72-90AC-9BC8F0809BDA}"/>
-    <hyperlink ref="E156" r:id="rId155" xr:uid="{61B4A616-9F90-4107-8A60-51F142E6BC19}"/>
-    <hyperlink ref="E157" r:id="rId156" xr:uid="{FD64CCD4-2571-4CB2-B5D7-EB09E747C0D6}"/>
-    <hyperlink ref="E158" r:id="rId157" xr:uid="{09D43C8B-7A04-482A-BECC-BF286F0C9249}"/>
-    <hyperlink ref="E159" r:id="rId158" xr:uid="{82D2514B-5348-4C42-A04B-E2E0B7C9B679}"/>
-    <hyperlink ref="E160" r:id="rId159" xr:uid="{422BD701-BA48-4720-A0BD-2377561E15AF}"/>
-    <hyperlink ref="E161" r:id="rId160" xr:uid="{9FDFDAE2-951E-477B-BB53-C4092D41C9CC}"/>
-    <hyperlink ref="E162" r:id="rId161" xr:uid="{802E4639-A787-4A0D-A178-0681D9BCE060}"/>
-    <hyperlink ref="E163" r:id="rId162" xr:uid="{A9DF9ECA-BC2A-4CB0-BE07-DEC700C42F8D}"/>
-    <hyperlink ref="E164" r:id="rId163" xr:uid="{3E7F46D6-3679-4474-BE27-91A856273C58}"/>
-    <hyperlink ref="E165" r:id="rId164" xr:uid="{1941ED7C-8908-4E75-930F-B2DF41A96990}"/>
-    <hyperlink ref="E166" r:id="rId165" xr:uid="{F07C0FEE-AC14-45AD-8BF9-9409AF47EC47}"/>
-    <hyperlink ref="E167" r:id="rId166" xr:uid="{D18E00A0-CC94-4835-9A15-52C92F3BF063}"/>
-    <hyperlink ref="E168" r:id="rId167" xr:uid="{3AF09292-EFF2-437B-B5E1-7F78EAD7F7C0}"/>
-    <hyperlink ref="E169" r:id="rId168" xr:uid="{BC1D8307-08C8-491C-B6C3-56ADC4352349}"/>
-    <hyperlink ref="E170" r:id="rId169" xr:uid="{CCF45D74-FBF5-4599-8479-80FD12ED5C1E}"/>
-    <hyperlink ref="E171" r:id="rId170" xr:uid="{71CF0A89-71AE-4388-A1BF-D1780F74AA5C}"/>
-    <hyperlink ref="E172" r:id="rId171" xr:uid="{C449824C-9643-4353-B696-25996836606C}"/>
-    <hyperlink ref="E173" r:id="rId172" xr:uid="{ABBF78D6-FA7B-412D-A548-600B5433232C}"/>
-    <hyperlink ref="E174" r:id="rId173" xr:uid="{F997B622-6D82-476C-84F8-65E89BECFE1E}"/>
-    <hyperlink ref="E175" r:id="rId174" xr:uid="{EF287C00-A944-48D0-9B65-D9D9999220B5}"/>
-    <hyperlink ref="E176" r:id="rId175" xr:uid="{3FCBAA56-9B86-44ED-BA32-4D3524AA8B75}"/>
-    <hyperlink ref="E177" r:id="rId176" xr:uid="{D0974446-14BE-41A4-BF02-E2B5EF2EB849}"/>
-    <hyperlink ref="E178" r:id="rId177" xr:uid="{2721B163-514C-4F6A-BBE4-B03957AE53C0}"/>
-    <hyperlink ref="E179" r:id="rId178" xr:uid="{1ABB9F30-3393-4937-9368-74917A650ACB}"/>
-    <hyperlink ref="E180" r:id="rId179" xr:uid="{3F084398-4020-4EF0-96CA-7890FBBAC42E}"/>
-    <hyperlink ref="E181" r:id="rId180" xr:uid="{F1DDEB04-C207-45D1-A813-8C1D05D1DFB3}"/>
-    <hyperlink ref="E182" r:id="rId181" xr:uid="{6BB80119-0290-44C9-95CB-6E88341381F0}"/>
-    <hyperlink ref="E183" r:id="rId182" xr:uid="{CCCEE98B-B0A6-485D-AF28-2599B2536F41}"/>
-    <hyperlink ref="E184" r:id="rId183" xr:uid="{7DA97A88-35AD-4D07-9958-E2848B531C9C}"/>
-    <hyperlink ref="E185" r:id="rId184" xr:uid="{FEB7AAE8-E918-447D-B3B9-1172E81296DE}"/>
-    <hyperlink ref="E186" r:id="rId185" xr:uid="{83B73B62-4220-4806-8CFB-ACF1F18AA4C9}"/>
-    <hyperlink ref="E187" r:id="rId186" xr:uid="{A23FDE30-2E06-4756-8459-AF6A715F165C}"/>
-    <hyperlink ref="E188" r:id="rId187" xr:uid="{CC950AEB-768F-4741-98FA-AEB0EA5EC21A}"/>
-    <hyperlink ref="E189" r:id="rId188" xr:uid="{A45ADA66-EE1B-4474-A0BC-77498AE111C0}"/>
-    <hyperlink ref="E190" r:id="rId189" xr:uid="{ABD5A5F7-70BB-4FB6-8D75-B24473281086}"/>
-    <hyperlink ref="E191" r:id="rId190" xr:uid="{FBF9116D-75FE-4009-B188-547D46FE4583}"/>
-    <hyperlink ref="E192" r:id="rId191" xr:uid="{7843D3A0-3463-416D-BEDD-77CF5F125C07}"/>
-    <hyperlink ref="E193" r:id="rId192" xr:uid="{65A39527-A1D2-4959-9796-BFEB81804C21}"/>
-    <hyperlink ref="E194" r:id="rId193" xr:uid="{890BFA2F-D62D-421B-B358-CA4786A2A7A7}"/>
-    <hyperlink ref="E195" r:id="rId194" xr:uid="{6A51D381-AF23-4247-82BB-A3B83AAE07FD}"/>
-    <hyperlink ref="E196" r:id="rId195" xr:uid="{16E97D41-54CD-49A2-A051-DE678034ECD9}"/>
-    <hyperlink ref="E197" r:id="rId196" xr:uid="{F72E2239-C73F-463D-AFCE-590E77A88DB3}"/>
-    <hyperlink ref="E198" r:id="rId197" xr:uid="{5D8514F4-EDE4-4069-9895-574216C071D6}"/>
-    <hyperlink ref="E199" r:id="rId198" xr:uid="{E596637F-E8B7-4519-AD5C-C6EA514BF4FE}"/>
-    <hyperlink ref="E200" r:id="rId199" xr:uid="{76C59A96-1B5A-4EB5-8F17-5779311F08A2}"/>
-    <hyperlink ref="E201" r:id="rId200" xr:uid="{BF36BC3A-E9CB-42E1-9864-BF65585529F1}"/>
-    <hyperlink ref="E202" r:id="rId201" xr:uid="{CB94188D-F87D-4F9D-B65F-94E3B6DB5FBF}"/>
-    <hyperlink ref="E203" r:id="rId202" xr:uid="{84556C2F-BF77-4B5C-A40F-FA92030770D5}"/>
-    <hyperlink ref="E204" r:id="rId203" xr:uid="{61C6FB8B-CAA9-4377-B725-B226F869CB0B}"/>
-    <hyperlink ref="E205" r:id="rId204" xr:uid="{7ABA7318-DD51-43B3-9828-E15DEC84110C}"/>
-    <hyperlink ref="E206" r:id="rId205" xr:uid="{9DA119D8-3A05-4391-AC17-0EF055018931}"/>
-    <hyperlink ref="E207" r:id="rId206" xr:uid="{C7F26FE1-F716-4417-9CFA-D39AE31EB078}"/>
-    <hyperlink ref="E208" r:id="rId207" xr:uid="{666E9971-318E-4636-AE28-CBB0F4750395}"/>
-    <hyperlink ref="E209" r:id="rId208" xr:uid="{01DF842F-754F-4E67-A217-0E84441C5071}"/>
-    <hyperlink ref="E210" r:id="rId209" xr:uid="{C798DFF1-30DC-4F8B-98F2-FF7795099B25}"/>
-    <hyperlink ref="E211" r:id="rId210" xr:uid="{4186CBE3-C922-4FDE-9D48-8ED5DF5E751D}"/>
-    <hyperlink ref="E212" r:id="rId211" xr:uid="{B700C85D-0994-4E9B-AC7F-9D3E5F316297}"/>
-    <hyperlink ref="E213" r:id="rId212" xr:uid="{AFBA5757-C367-42EC-9016-09AC4932FB68}"/>
-    <hyperlink ref="E214" r:id="rId213" xr:uid="{975BC3F0-AC34-4BBF-B14D-553E5A7EFE77}"/>
-    <hyperlink ref="E215" r:id="rId214" xr:uid="{CB2E32D3-574C-4F3D-867E-0EAFFFA80C96}"/>
-    <hyperlink ref="E216" r:id="rId215" xr:uid="{36044294-0866-40A7-97E0-FC434109D377}"/>
-    <hyperlink ref="E217" r:id="rId216" xr:uid="{3A4DEB8B-92F8-4E3C-B804-BA4BF91271A3}"/>
-    <hyperlink ref="E218" r:id="rId217" xr:uid="{CE2C841E-5555-4CEC-9A2C-81FC500E59E4}"/>
-    <hyperlink ref="E219" r:id="rId218" xr:uid="{88BDBB32-E4B9-42F1-94BD-3F82A4605674}"/>
-    <hyperlink ref="E220" r:id="rId219" xr:uid="{16F10901-867A-498C-B9B6-300427342E00}"/>
-    <hyperlink ref="E221" r:id="rId220" xr:uid="{D0EE1D07-8C76-4662-A180-9A03314CDC14}"/>
-    <hyperlink ref="E222" r:id="rId221" xr:uid="{15FE27DA-CD45-4A9C-AF56-5CCEF51FBC7B}"/>
-    <hyperlink ref="E223" r:id="rId222" xr:uid="{EFF3B0C8-3F26-411D-A1D8-39B089307FD8}"/>
-    <hyperlink ref="E224" r:id="rId223" xr:uid="{7F0D4D93-0A11-4516-9B43-331DBA3F01CC}"/>
-    <hyperlink ref="E225" r:id="rId224" xr:uid="{D51A121C-B1EF-4CE2-A4A9-9F565A29B2CA}"/>
-    <hyperlink ref="E226" r:id="rId225" xr:uid="{32107AC1-9E5A-4104-B0F6-75FE80B75B34}"/>
-    <hyperlink ref="E227" r:id="rId226" xr:uid="{E6E5FFC8-F6DD-41F2-A45C-D0E8F1778E6B}"/>
-    <hyperlink ref="E228" r:id="rId227" xr:uid="{F68C9C48-DB6C-4053-A60E-D0DEC7208D4F}"/>
-    <hyperlink ref="E229" r:id="rId228" xr:uid="{07F4AA87-7C2C-4017-898F-CAB1632F34DA}"/>
-    <hyperlink ref="E230" r:id="rId229" xr:uid="{D04F23C5-A8B8-47CE-8853-B33D426FB88F}"/>
-    <hyperlink ref="E231" r:id="rId230" xr:uid="{2281171E-7886-48DD-8C8A-242390850815}"/>
-    <hyperlink ref="E232" r:id="rId231" xr:uid="{FEF9F7DF-A41A-4122-9364-F5B13CD461E6}"/>
-    <hyperlink ref="E233" r:id="rId232" xr:uid="{9ED9F935-EA4C-4062-9A48-DACA1CFF2DDF}"/>
-    <hyperlink ref="E234" r:id="rId233" xr:uid="{B082BD7D-F1A8-4094-857A-FD5AEFB8BD40}"/>
-    <hyperlink ref="E235" r:id="rId234" xr:uid="{01911B84-382C-447A-AA11-162C0B0992B5}"/>
-    <hyperlink ref="E236" r:id="rId235" xr:uid="{3BA6451B-98C3-47DC-B7CB-14BB6E03D1BA}"/>
-    <hyperlink ref="E237" r:id="rId236" xr:uid="{121176E5-890B-457F-999C-CEBFD1CFD516}"/>
-    <hyperlink ref="E238" r:id="rId237" xr:uid="{AB79FD85-2223-4CEA-B28E-CA32B4AE3771}"/>
-    <hyperlink ref="E239" r:id="rId238" xr:uid="{8B19A337-2FDE-4747-81A3-2DD62CDEEBDF}"/>
-    <hyperlink ref="E240" r:id="rId239" xr:uid="{17D12CA7-F42E-417D-B60D-9B8D36619596}"/>
-    <hyperlink ref="E241" r:id="rId240" xr:uid="{E2D93506-42D9-4A1D-B8BD-C7EBE3874D85}"/>
-    <hyperlink ref="E242" r:id="rId241" xr:uid="{17DA3167-CCA4-4A80-817C-151818B5FB1B}"/>
-    <hyperlink ref="E243" r:id="rId242" xr:uid="{43FD81D9-C8DC-40CB-9ECE-4E6C195B0723}"/>
-    <hyperlink ref="E244" r:id="rId243" xr:uid="{4953D843-BF6E-42D4-8410-C9E56F95B585}"/>
-    <hyperlink ref="E245" r:id="rId244" xr:uid="{2B3569C4-B6A7-44AE-9F6C-1BFBBC2F435F}"/>
-    <hyperlink ref="E246" r:id="rId245" xr:uid="{20D47425-AC3C-42FE-BB5C-BE73F605DEF4}"/>
-    <hyperlink ref="E247" r:id="rId246" xr:uid="{9E77B12E-7CE0-46FE-B6F5-A5E0B215FD44}"/>
-    <hyperlink ref="E248" r:id="rId247" xr:uid="{9CE06035-23D2-4CB3-AE03-D3DF752C2D0C}"/>
-    <hyperlink ref="E249" r:id="rId248" xr:uid="{7A4D58F3-D070-48BF-8500-D38182389D89}"/>
-    <hyperlink ref="E250" r:id="rId249" xr:uid="{3F164215-C4DB-48FE-ADCC-C3ED25C1D30F}"/>
-    <hyperlink ref="E251" r:id="rId250" xr:uid="{8541A03D-BC80-474D-9441-8D245E8BA080}"/>
-    <hyperlink ref="E252" r:id="rId251" xr:uid="{78DA3362-1E67-4D22-9FF7-D7AE67BDFC36}"/>
-    <hyperlink ref="E253" r:id="rId252" xr:uid="{224FF48A-F4F4-4FB4-8DFE-27BE989F0590}"/>
-    <hyperlink ref="E254" r:id="rId253" xr:uid="{F1437C1C-A112-4DEF-B2F1-FC5516CBC74C}"/>
-    <hyperlink ref="E255" r:id="rId254" xr:uid="{F7F622BC-5A0A-4C88-8AB6-1BB1E12C2D18}"/>
-    <hyperlink ref="E256" r:id="rId255" xr:uid="{97AB4B1A-2C7F-4724-837C-0C014FB9E67D}"/>
-    <hyperlink ref="E257" r:id="rId256" xr:uid="{87F785A3-D6BC-4B73-B81E-86510A9CE3CA}"/>
-    <hyperlink ref="E258" r:id="rId257" xr:uid="{3CA6FD86-DEEC-48CC-A160-5F756CF8C511}"/>
-    <hyperlink ref="E259" r:id="rId258" xr:uid="{CDA189C8-29F3-41A2-B24E-9FB4A7A2B562}"/>
-    <hyperlink ref="E260" r:id="rId259" xr:uid="{7858E0EF-0435-4D33-8CF4-B54A7EEC52A1}"/>
-    <hyperlink ref="E261" r:id="rId260" xr:uid="{ED3E5A5E-1AE7-4956-B074-10A465B852D7}"/>
-    <hyperlink ref="E262" r:id="rId261" xr:uid="{24B6A1D9-0D35-4389-9844-C005FC412967}"/>
-    <hyperlink ref="E263" r:id="rId262" xr:uid="{C36C16BB-832F-403F-8E82-A5D8393E54B1}"/>
-    <hyperlink ref="E264" r:id="rId263" xr:uid="{66A53A88-F65D-4E86-89B7-102097169A49}"/>
-    <hyperlink ref="E265" r:id="rId264" xr:uid="{B6D970F9-5A93-4178-8AC0-50B655D59E2E}"/>
-    <hyperlink ref="E266" r:id="rId265" xr:uid="{F0CDD72F-4B71-4331-90A9-7AA6EA1C0502}"/>
-    <hyperlink ref="E267" r:id="rId266" xr:uid="{A4CA90B3-D3D9-436C-98EE-5B1F0943755E}"/>
-    <hyperlink ref="E268" r:id="rId267" xr:uid="{8629D6EC-B244-478F-98E0-053B0FB1EBE5}"/>
-    <hyperlink ref="E269" r:id="rId268" xr:uid="{68A559F9-3740-4C66-A10E-F6402BA4AFB7}"/>
-    <hyperlink ref="E270" r:id="rId269" xr:uid="{3104181C-E2F1-45E4-A452-1A9607C4A41D}"/>
-    <hyperlink ref="E271" r:id="rId270" xr:uid="{4BBC1872-D311-41AE-9954-3E192963F1B3}"/>
-    <hyperlink ref="E272" r:id="rId271" xr:uid="{07C89701-CCAF-4781-AA6B-335165722D0E}"/>
-    <hyperlink ref="E273" r:id="rId272" xr:uid="{68CB7DA1-1331-41AF-8C80-7DBB99D68235}"/>
-    <hyperlink ref="E274" r:id="rId273" xr:uid="{57B39FEB-512F-44C2-8C64-A73C61F31337}"/>
-    <hyperlink ref="E275" r:id="rId274" xr:uid="{C0ED1B11-0BC1-4A0D-B31D-58C0B1A9EA7F}"/>
-    <hyperlink ref="E276" r:id="rId275" xr:uid="{90601035-10D1-499C-A2DB-6F87EF8BF7A6}"/>
-    <hyperlink ref="E277" r:id="rId276" xr:uid="{CAF637AF-D006-46A3-B954-97F495F67A7D}"/>
-    <hyperlink ref="E278" r:id="rId277" xr:uid="{67E4339D-261D-4640-8E0F-552818E6CE08}"/>
-    <hyperlink ref="E279" r:id="rId278" xr:uid="{5911D33C-38B3-4DB0-B333-2ABE3DC01F1E}"/>
-    <hyperlink ref="E280" r:id="rId279" xr:uid="{3BDB1FCB-B65A-4FBD-B673-E0E875FBB06B}"/>
-    <hyperlink ref="E281" r:id="rId280" xr:uid="{5DE20315-25B4-4C9D-BD7C-B89D4C0947A6}"/>
-    <hyperlink ref="E282" r:id="rId281" xr:uid="{94A0AC9F-3785-428E-9619-14D878EFDD9B}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{E6D53CE8-897A-4AA8-9AC7-24A8E8EA83F5}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{A582BA9D-BCE1-4049-90BD-3DCC75E567CA}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{E5958981-FA19-4732-9853-684830D75199}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{677D4820-BEF8-4EA3-AE24-1F1175123DEB}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{B5CA9593-03F0-492F-B196-FA754F72EE76}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{8D6E03FA-A951-4B30-AEE2-8E47137C3B43}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{5B468CAC-9621-4509-9833-EE5B4F6E6CAF}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{7F7AA9D5-913F-4B14-99AD-83BEDFB49833}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{079DDCFE-E579-4230-AE3D-847170D9A152}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{FDDB2604-5AB1-4B4C-AF58-9C3DED3BCCE2}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{3A796E41-1A71-4892-A16C-D077BEBCE3AD}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{54F78C33-9631-4F2F-9E06-C7A482FCBB77}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{A13E999A-6103-4152-9383-2AE492A0DE76}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{0DD3AAE9-EBAD-4B4E-9A0F-243B8973C673}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{ABAC79C1-C86D-4ED6-8DD8-4CBAE894956E}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{95587C12-A52E-4BFE-889F-F655B51B1EE3}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{AC1F9975-7DF7-4235-A125-58F648C36EC4}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{874EC906-C79C-4C2B-ACFC-6FF1C9746690}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{9E423B3D-93AF-4671-AF25-88D91A82E666}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{3C08B761-F3E3-42F6-B9F4-0A9C353ADBCC}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{64C15274-2CC8-4D70-8604-E8177FCF92E6}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{1CAE38DF-835A-4B14-B8C8-4B9191610103}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{E1C5EFC0-939F-45A7-8ED1-986804DD06F2}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{9927766E-D6BF-471B-8ABB-1CFBAA951AC9}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{AFB89DDB-04EA-4E25-9E4A-D788677349E9}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{F7ED09D8-D257-40BD-8506-C84916D89860}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{780EFCA9-5ABA-4732-A501-F5E2E9B00E14}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{68111746-58A0-40F1-A3E8-0E752EA969D9}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{0DDEB4A1-80A8-4787-AB9A-075620089B59}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{CA463262-86EB-4CC3-A501-F6873FB3FEFA}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{D6A37500-2396-4C81-87AA-2D31BC36B95E}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{ACA37ADB-3A3E-432B-9F5B-C29EC30F0701}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{B297C5AE-AE31-43C8-92CD-D5F9EC9E9200}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{CA647848-DA1B-4667-A06C-A8634995430F}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{028FC4BC-0649-4560-93DF-A35EEA97C322}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{E71F564A-C8A8-4ECC-BC3B-B46C5D989215}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{5A4BDF90-3FBE-40DB-A8B2-9CB5642CF19B}"/>
+    <hyperlink ref="E48" r:id="rId47" xr:uid="{AE4BC246-CA83-4652-84CC-4B789C1A8525}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{234516C3-A2C2-4382-AE4D-4FF07C399758}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{4E568BB8-C44F-4E83-A5F8-5A019D5289CE}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{D4E2207D-10C3-45EA-9662-1DF3ABD4F9E6}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{CEE945D4-C548-4A06-9428-9AB63CC67A37}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{1CD31C53-E4AA-453B-986F-DC6CEE6A504E}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{68D53033-D56C-434D-A5B8-1D6BCB8B89AF}"/>
+    <hyperlink ref="E55" r:id="rId54" xr:uid="{887809CA-3C58-42B6-804E-A7A83C46C66B}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{2F6E721D-1342-423C-862E-00047E61D5EB}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{4E3B632A-EECE-4A7E-88A9-86A97CBDEC0D}"/>
+    <hyperlink ref="E58" r:id="rId57" xr:uid="{EF15F7A6-7753-490F-8438-16635420FBF6}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{8269BAD3-0A71-4599-8E8B-F8D55DE0082D}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{9D1A5FE5-0153-4A93-A4AC-A7B372628CDD}"/>
+    <hyperlink ref="E61" r:id="rId60" xr:uid="{D6C45320-A822-4FF8-B150-D600422EA9B5}"/>
+    <hyperlink ref="E62" r:id="rId61" xr:uid="{394BFCC6-4B13-46D4-9B31-A13837140FB8}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{DBE9AD03-8333-4487-9496-011E08653E30}"/>
+    <hyperlink ref="E64" r:id="rId63" xr:uid="{1B857D54-ED82-4E1C-8991-0FCF7A730ED7}"/>
+    <hyperlink ref="E65" r:id="rId64" xr:uid="{101A1A2D-2641-4E25-8C2B-A21D2F00A398}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{5231FDB2-60F3-46B0-A178-7A2B878B0E22}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{3814A131-3508-4F37-930D-238DEA9DC119}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{18333606-B0F7-4244-A646-C498ECF2FE50}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{1B925DBB-0366-4D4F-80F9-EE566160A2F7}"/>
+    <hyperlink ref="E70" r:id="rId69" xr:uid="{696E221C-977C-4A27-9E43-0F11C2C1A3D1}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{AA1A8D9C-403B-47FE-9605-B4B5A007641A}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{03409A16-2892-4371-85C3-982F53F3C6FA}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{F76FA251-886B-4338-8B76-88E0AE83D7B7}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{5164DC11-0A9D-450C-AF55-FAA59CB98660}"/>
+    <hyperlink ref="E75" r:id="rId74" xr:uid="{E6F0E4BA-C4A2-4C35-A2B3-C923F446559A}"/>
+    <hyperlink ref="E76" r:id="rId75" xr:uid="{71140FFE-85F1-4D73-8E01-F38BBA2DCFEB}"/>
+    <hyperlink ref="E77" r:id="rId76" xr:uid="{9FB3DDBA-5E92-4A21-982D-0320BCEA1634}"/>
+    <hyperlink ref="E78" r:id="rId77" xr:uid="{E0F23430-E2A9-4CC6-B2F5-2E1C90FA222B}"/>
+    <hyperlink ref="E79" r:id="rId78" xr:uid="{D6F676B6-FF96-43A5-BE9B-C4D88C74ABBD}"/>
+    <hyperlink ref="E80" r:id="rId79" xr:uid="{A0BEF11A-E254-4ED9-BE51-437D2D7522DC}"/>
+    <hyperlink ref="E81" r:id="rId80" xr:uid="{544A6F21-D49C-421D-ACBC-15EBEBD582DF}"/>
+    <hyperlink ref="E82" r:id="rId81" xr:uid="{EB2BCD48-9560-416A-9AA1-0238D73AD7F4}"/>
+    <hyperlink ref="E83" r:id="rId82" xr:uid="{3506E0B0-83B8-43F2-9509-A2821DECBC7F}"/>
+    <hyperlink ref="E84" r:id="rId83" xr:uid="{B3B3E37C-E782-4A63-8B7D-BB4F7E44991B}"/>
+    <hyperlink ref="E85" r:id="rId84" xr:uid="{27D5F791-1024-4D10-AE65-C2575D49ED1B}"/>
+    <hyperlink ref="E86" r:id="rId85" xr:uid="{795D5FB7-FF5B-4A88-AE94-0622A0C3D321}"/>
+    <hyperlink ref="E87" r:id="rId86" xr:uid="{A9CB511C-F51C-4344-B347-29D28F5812CE}"/>
+    <hyperlink ref="E88" r:id="rId87" xr:uid="{3181F587-4D54-4E72-AAE7-29E8E2BA4ECB}"/>
+    <hyperlink ref="E89" r:id="rId88" xr:uid="{66DB43F9-5A61-4CB9-A3CD-8026B8447457}"/>
+    <hyperlink ref="E90" r:id="rId89" xr:uid="{09CE2A72-D740-4A0D-8201-005F496E33E8}"/>
+    <hyperlink ref="E91" r:id="rId90" xr:uid="{74F1D2DA-B161-4F7F-95C9-60514474D5B3}"/>
+    <hyperlink ref="E92" r:id="rId91" xr:uid="{47568925-57C5-4681-BC51-658AE436BD92}"/>
+    <hyperlink ref="E93" r:id="rId92" xr:uid="{3AC2CAF6-F24C-4242-99F3-67AC727958BC}"/>
+    <hyperlink ref="E94" r:id="rId93" xr:uid="{3BD3363D-B3F9-4AB5-978D-8177A2AB688B}"/>
+    <hyperlink ref="E95" r:id="rId94" xr:uid="{6F800612-CF18-4256-AFAC-E236011353A4}"/>
+    <hyperlink ref="E96" r:id="rId95" xr:uid="{FF875F64-A4BA-4EB9-9F1C-C4734F6DC590}"/>
+    <hyperlink ref="E97" r:id="rId96" xr:uid="{B6AED8B6-43D3-4300-9DBE-211016497022}"/>
+    <hyperlink ref="E98" r:id="rId97" xr:uid="{FF07EC34-202B-48A6-A730-888BF38D022B}"/>
+    <hyperlink ref="E99" r:id="rId98" xr:uid="{BF1F5826-4DB7-4F0D-80BF-D5576F544970}"/>
+    <hyperlink ref="E100" r:id="rId99" xr:uid="{59BCE3D2-386B-4923-8AD1-2333E8728C1A}"/>
+    <hyperlink ref="E101" r:id="rId100" xr:uid="{09C76EAC-F415-4C40-AD6F-825D5F4A53B0}"/>
+    <hyperlink ref="E102" r:id="rId101" xr:uid="{963DDA67-314C-4FC2-BE71-A823BA62738E}"/>
+    <hyperlink ref="E103" r:id="rId102" xr:uid="{FF51E552-1416-4E86-A586-E2AE78675BEC}"/>
+    <hyperlink ref="E104" r:id="rId103" xr:uid="{226B51C6-FC1B-4A0C-990C-BBE02FBF96B8}"/>
+    <hyperlink ref="E105" r:id="rId104" xr:uid="{BDD43D98-8C3B-4070-85F2-739233BF513F}"/>
+    <hyperlink ref="E106" r:id="rId105" xr:uid="{A58DD89B-935F-48AB-B491-3980C86EBD77}"/>
+    <hyperlink ref="E107" r:id="rId106" xr:uid="{9AB550F7-6C33-4F85-A2B4-5B3E8D91410A}"/>
+    <hyperlink ref="E108" r:id="rId107" xr:uid="{429B5421-7B09-4736-ACC3-DBA4639A2CD1}"/>
+    <hyperlink ref="E109" r:id="rId108" xr:uid="{1B79DD9B-36B2-4C26-93AE-4C0B5502F139}"/>
+    <hyperlink ref="E110" r:id="rId109" xr:uid="{0247A08F-4D77-40EB-A95A-9EE42AF825F2}"/>
+    <hyperlink ref="E111" r:id="rId110" xr:uid="{6862CB31-777C-484C-A8A5-D9EC5BE77DF7}"/>
+    <hyperlink ref="E112" r:id="rId111" xr:uid="{28C17051-C63A-4645-BD2A-CC0472282E6F}"/>
+    <hyperlink ref="E113" r:id="rId112" xr:uid="{EB184F58-849F-4334-BE2B-345008665A7C}"/>
+    <hyperlink ref="E114" r:id="rId113" xr:uid="{4A8CABD9-423A-4537-A2FC-776B261CEC76}"/>
+    <hyperlink ref="E115" r:id="rId114" xr:uid="{197A41C8-B7D6-4EF4-92F3-904BED8B052F}"/>
+    <hyperlink ref="E116" r:id="rId115" xr:uid="{8EC5702D-0F7C-416B-8696-E0A94109FC62}"/>
+    <hyperlink ref="E117" r:id="rId116" xr:uid="{97C6BEFD-3E55-4BB8-9F5D-0A1F0FC9AAB3}"/>
+    <hyperlink ref="E118" r:id="rId117" xr:uid="{95D39CF2-F093-4880-B6B7-297B9B1A2A9B}"/>
+    <hyperlink ref="E119" r:id="rId118" xr:uid="{606C9619-8466-4A71-9477-9799CBE73E8D}"/>
+    <hyperlink ref="E120" r:id="rId119" xr:uid="{E9AD9245-8F85-4C49-9CD0-891ADFAA5E0E}"/>
+    <hyperlink ref="E121" r:id="rId120" xr:uid="{697DEF31-2D1C-46DF-9B2C-D56E2639B78C}"/>
+    <hyperlink ref="E122" r:id="rId121" xr:uid="{4077AC53-F41E-43F6-B46D-27678308738A}"/>
+    <hyperlink ref="E123" r:id="rId122" xr:uid="{D88FB303-D4F8-40F3-920E-4B4CAF55E513}"/>
+    <hyperlink ref="E124" r:id="rId123" xr:uid="{E52F3D39-211E-4C6A-81C0-5CA5BE19F3A6}"/>
+    <hyperlink ref="E125" r:id="rId124" xr:uid="{00655649-4893-49E6-869C-EB6D6DD16778}"/>
+    <hyperlink ref="E126" r:id="rId125" xr:uid="{E045D9F3-1944-4074-B829-EE85C0E519C1}"/>
+    <hyperlink ref="E127" r:id="rId126" xr:uid="{7EAF75F4-9952-452A-8A5E-1A08F2358A55}"/>
+    <hyperlink ref="E128" r:id="rId127" xr:uid="{F416182B-8AC7-478A-99BD-F38FAC4ED386}"/>
+    <hyperlink ref="E129" r:id="rId128" xr:uid="{B8D9078E-E0ED-43E2-9477-FDF21F510E62}"/>
+    <hyperlink ref="E130" r:id="rId129" xr:uid="{6414071B-D8B7-467A-A9A2-6D0C46E8235E}"/>
+    <hyperlink ref="E131" r:id="rId130" xr:uid="{A6024FA1-7886-4E13-94F0-9E50413AC453}"/>
+    <hyperlink ref="E132" r:id="rId131" xr:uid="{917012DC-2628-4189-91E1-D7DE334BCEFE}"/>
+    <hyperlink ref="E133" r:id="rId132" xr:uid="{6EF8C80B-6953-434E-81FE-D539128E84D4}"/>
+    <hyperlink ref="E134" r:id="rId133" xr:uid="{170C1751-5ED3-4317-8A8A-0922BA14553C}"/>
+    <hyperlink ref="E135" r:id="rId134" xr:uid="{2E4ED70F-31FF-425F-9266-AF45AA7D7197}"/>
+    <hyperlink ref="E136" r:id="rId135" xr:uid="{4E72423E-F6ED-48FB-A2CB-F4240807FCF8}"/>
+    <hyperlink ref="E137" r:id="rId136" xr:uid="{F1BDF8A8-345E-4C19-ACE0-9878DF38641F}"/>
+    <hyperlink ref="E138" r:id="rId137" xr:uid="{9D6699F5-2777-4F32-B287-B595A1F9D2AD}"/>
+    <hyperlink ref="E139" r:id="rId138" xr:uid="{F3C6B5FE-98B4-4C46-ADD0-C266EF70FC7D}"/>
+    <hyperlink ref="E140" r:id="rId139" xr:uid="{DC7A2311-6ADE-4D72-90AC-9BC8F0809BDA}"/>
+    <hyperlink ref="E141" r:id="rId140" xr:uid="{61B4A616-9F90-4107-8A60-51F142E6BC19}"/>
+    <hyperlink ref="E142" r:id="rId141" xr:uid="{09D43C8B-7A04-482A-BECC-BF286F0C9249}"/>
+    <hyperlink ref="E143" r:id="rId142" xr:uid="{82D2514B-5348-4C42-A04B-E2E0B7C9B679}"/>
+    <hyperlink ref="E144" r:id="rId143" xr:uid="{9FDFDAE2-951E-477B-BB53-C4092D41C9CC}"/>
+    <hyperlink ref="E145" r:id="rId144" xr:uid="{802E4639-A787-4A0D-A178-0681D9BCE060}"/>
+    <hyperlink ref="E146" r:id="rId145" xr:uid="{A9DF9ECA-BC2A-4CB0-BE07-DEC700C42F8D}"/>
+    <hyperlink ref="E147" r:id="rId146" xr:uid="{3E7F46D6-3679-4474-BE27-91A856273C58}"/>
+    <hyperlink ref="E148" r:id="rId147" xr:uid="{1941ED7C-8908-4E75-930F-B2DF41A96990}"/>
+    <hyperlink ref="E149" r:id="rId148" xr:uid="{F07C0FEE-AC14-45AD-8BF9-9409AF47EC47}"/>
+    <hyperlink ref="E150" r:id="rId149" xr:uid="{D18E00A0-CC94-4835-9A15-52C92F3BF063}"/>
+    <hyperlink ref="E151" r:id="rId150" xr:uid="{3AF09292-EFF2-437B-B5E1-7F78EAD7F7C0}"/>
+    <hyperlink ref="E152" r:id="rId151" xr:uid="{BC1D8307-08C8-491C-B6C3-56ADC4352349}"/>
+    <hyperlink ref="E153" r:id="rId152" xr:uid="{CCF45D74-FBF5-4599-8479-80FD12ED5C1E}"/>
+    <hyperlink ref="E154" r:id="rId153" xr:uid="{71CF0A89-71AE-4388-A1BF-D1780F74AA5C}"/>
+    <hyperlink ref="E155" r:id="rId154" xr:uid="{C449824C-9643-4353-B696-25996836606C}"/>
+    <hyperlink ref="E156" r:id="rId155" xr:uid="{ABBF78D6-FA7B-412D-A548-600B5433232C}"/>
+    <hyperlink ref="E157" r:id="rId156" xr:uid="{F997B622-6D82-476C-84F8-65E89BECFE1E}"/>
+    <hyperlink ref="E158" r:id="rId157" xr:uid="{EF287C00-A944-48D0-9B65-D9D9999220B5}"/>
+    <hyperlink ref="E159" r:id="rId158" xr:uid="{3FCBAA56-9B86-44ED-BA32-4D3524AA8B75}"/>
+    <hyperlink ref="E160" r:id="rId159" xr:uid="{D0974446-14BE-41A4-BF02-E2B5EF2EB849}"/>
+    <hyperlink ref="E161" r:id="rId160" xr:uid="{2721B163-514C-4F6A-BBE4-B03957AE53C0}"/>
+    <hyperlink ref="E162" r:id="rId161" xr:uid="{1ABB9F30-3393-4937-9368-74917A650ACB}"/>
+    <hyperlink ref="E163" r:id="rId162" xr:uid="{F1DDEB04-C207-45D1-A813-8C1D05D1DFB3}"/>
+    <hyperlink ref="E164" r:id="rId163" xr:uid="{6BB80119-0290-44C9-95CB-6E88341381F0}"/>
+    <hyperlink ref="E165" r:id="rId164" xr:uid="{A23FDE30-2E06-4756-8459-AF6A715F165C}"/>
+    <hyperlink ref="E166" r:id="rId165" xr:uid="{CC950AEB-768F-4741-98FA-AEB0EA5EC21A}"/>
+    <hyperlink ref="E167" r:id="rId166" xr:uid="{A45ADA66-EE1B-4474-A0BC-77498AE111C0}"/>
+    <hyperlink ref="E168" r:id="rId167" xr:uid="{ABD5A5F7-70BB-4FB6-8D75-B24473281086}"/>
+    <hyperlink ref="E169" r:id="rId168" xr:uid="{65A39527-A1D2-4959-9796-BFEB81804C21}"/>
+    <hyperlink ref="E170" r:id="rId169" xr:uid="{890BFA2F-D62D-421B-B358-CA4786A2A7A7}"/>
+    <hyperlink ref="E171" r:id="rId170" xr:uid="{6A51D381-AF23-4247-82BB-A3B83AAE07FD}"/>
+    <hyperlink ref="E172" r:id="rId171" xr:uid="{16E97D41-54CD-49A2-A051-DE678034ECD9}"/>
+    <hyperlink ref="E173" r:id="rId172" xr:uid="{F72E2239-C73F-463D-AFCE-590E77A88DB3}"/>
+    <hyperlink ref="E174" r:id="rId173" xr:uid="{5D8514F4-EDE4-4069-9895-574216C071D6}"/>
+    <hyperlink ref="E175" r:id="rId174" xr:uid="{E596637F-E8B7-4519-AD5C-C6EA514BF4FE}"/>
+    <hyperlink ref="E176" r:id="rId175" xr:uid="{CB94188D-F87D-4F9D-B65F-94E3B6DB5FBF}"/>
+    <hyperlink ref="E177" r:id="rId176" xr:uid="{84556C2F-BF77-4B5C-A40F-FA92030770D5}"/>
+    <hyperlink ref="E178" r:id="rId177" xr:uid="{01DF842F-754F-4E67-A217-0E84441C5071}"/>
+    <hyperlink ref="E179" r:id="rId178" xr:uid="{C798DFF1-30DC-4F8B-98F2-FF7795099B25}"/>
+    <hyperlink ref="E180" r:id="rId179" xr:uid="{4186CBE3-C922-4FDE-9D48-8ED5DF5E751D}"/>
+    <hyperlink ref="E181" r:id="rId180" xr:uid="{B700C85D-0994-4E9B-AC7F-9D3E5F316297}"/>
+    <hyperlink ref="E182" r:id="rId181" xr:uid="{AFBA5757-C367-42EC-9016-09AC4932FB68}"/>
+    <hyperlink ref="E183" r:id="rId182" xr:uid="{975BC3F0-AC34-4BBF-B14D-553E5A7EFE77}"/>
+    <hyperlink ref="E184" r:id="rId183" xr:uid="{36044294-0866-40A7-97E0-FC434109D377}"/>
+    <hyperlink ref="E185" r:id="rId184" xr:uid="{CE2C841E-5555-4CEC-9A2C-81FC500E59E4}"/>
+    <hyperlink ref="E186" r:id="rId185" xr:uid="{88BDBB32-E4B9-42F1-94BD-3F82A4605674}"/>
+    <hyperlink ref="E187" r:id="rId186" xr:uid="{16F10901-867A-498C-B9B6-300427342E00}"/>
+    <hyperlink ref="E188" r:id="rId187" xr:uid="{15FE27DA-CD45-4A9C-AF56-5CCEF51FBC7B}"/>
+    <hyperlink ref="E189" r:id="rId188" xr:uid="{D51A121C-B1EF-4CE2-A4A9-9F565A29B2CA}"/>
+    <hyperlink ref="E190" r:id="rId189" xr:uid="{D04F23C5-A8B8-47CE-8853-B33D426FB88F}"/>
+    <hyperlink ref="E191" r:id="rId190" xr:uid="{9ED9F935-EA4C-4062-9A48-DACA1CFF2DDF}"/>
+    <hyperlink ref="E192" r:id="rId191" xr:uid="{B082BD7D-F1A8-4094-857A-FD5AEFB8BD40}"/>
+    <hyperlink ref="E193" r:id="rId192" xr:uid="{01911B84-382C-447A-AA11-162C0B0992B5}"/>
+    <hyperlink ref="E194" r:id="rId193" xr:uid="{121176E5-890B-457F-999C-CEBFD1CFD516}"/>
+    <hyperlink ref="E195" r:id="rId194" xr:uid="{17DA3167-CCA4-4A80-817C-151818B5FB1B}"/>
+    <hyperlink ref="E196" r:id="rId195" xr:uid="{43FD81D9-C8DC-40CB-9ECE-4E6C195B0723}"/>
+    <hyperlink ref="E197" r:id="rId196" xr:uid="{2B3569C4-B6A7-44AE-9F6C-1BFBBC2F435F}"/>
+    <hyperlink ref="E198" r:id="rId197" xr:uid="{3F164215-C4DB-48FE-ADCC-C3ED25C1D30F}"/>
+    <hyperlink ref="E199" r:id="rId198" xr:uid="{8541A03D-BC80-474D-9441-8D245E8BA080}"/>
+    <hyperlink ref="E200" r:id="rId199" xr:uid="{78DA3362-1E67-4D22-9FF7-D7AE67BDFC36}"/>
+    <hyperlink ref="E201" r:id="rId200" xr:uid="{224FF48A-F4F4-4FB4-8DFE-27BE989F0590}"/>
+    <hyperlink ref="E202" r:id="rId201" xr:uid="{F1437C1C-A112-4DEF-B2F1-FC5516CBC74C}"/>
+    <hyperlink ref="E203" r:id="rId202" xr:uid="{F7F622BC-5A0A-4C88-8AB6-1BB1E12C2D18}"/>
+    <hyperlink ref="E204" r:id="rId203" xr:uid="{97AB4B1A-2C7F-4724-837C-0C014FB9E67D}"/>
+    <hyperlink ref="E205" r:id="rId204" xr:uid="{87F785A3-D6BC-4B73-B81E-86510A9CE3CA}"/>
+    <hyperlink ref="E206" r:id="rId205" xr:uid="{3CA6FD86-DEEC-48CC-A160-5F756CF8C511}"/>
+    <hyperlink ref="E207" r:id="rId206" xr:uid="{CDA189C8-29F3-41A2-B24E-9FB4A7A2B562}"/>
+    <hyperlink ref="E208" r:id="rId207" xr:uid="{24B6A1D9-0D35-4389-9844-C005FC412967}"/>
+    <hyperlink ref="E209" r:id="rId208" xr:uid="{C36C16BB-832F-403F-8E82-A5D8393E54B1}"/>
+    <hyperlink ref="E210" r:id="rId209" xr:uid="{66A53A88-F65D-4E86-89B7-102097169A49}"/>
+    <hyperlink ref="E211" r:id="rId210" xr:uid="{B6D970F9-5A93-4178-8AC0-50B655D59E2E}"/>
+    <hyperlink ref="E212" r:id="rId211" xr:uid="{57B39FEB-512F-44C2-8C64-A73C61F31337}"/>
+    <hyperlink ref="E213" r:id="rId212" xr:uid="{C0ED1B11-0BC1-4A0D-B31D-58C0B1A9EA7F}"/>
+    <hyperlink ref="E214" r:id="rId213" xr:uid="{90601035-10D1-499C-A2DB-6F87EF8BF7A6}"/>
+    <hyperlink ref="E215" r:id="rId214" xr:uid="{CAF637AF-D006-46A3-B954-97F495F67A7D}"/>
+    <hyperlink ref="E216" r:id="rId215" xr:uid="{67E4339D-261D-4640-8E0F-552818E6CE08}"/>
+    <hyperlink ref="E217" r:id="rId216" xr:uid="{3BDB1FCB-B65A-4FBD-B673-E0E875FBB06B}"/>
+    <hyperlink ref="E218" r:id="rId217" xr:uid="{94A0AC9F-3785-428E-9619-14D878EFDD9B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
